--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1908654.466430816</v>
+        <v>-1909402.867941737</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4354305.171692327</v>
+        <v>4354305.17169237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736551</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14366329.00038299</v>
+        <v>14366329.00038298</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>132.245696622898</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>239.8776541310983</v>
       </c>
       <c r="E11" t="n">
-        <v>261.6197917010057</v>
+        <v>261.6197917010038</v>
       </c>
       <c r="F11" t="n">
-        <v>280.7916077889828</v>
+        <v>280.791607788981</v>
       </c>
       <c r="G11" t="n">
-        <v>282.1305160374087</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>194.1880049094285</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>18.95690544140075</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.59464412049029</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>90.29547644886767</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>90.72033555551135</v>
+        <v>123.0708631572758</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>204.3914103690677</v>
       </c>
       <c r="W11" t="n">
-        <v>229.6915098470265</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>248.9917680797712</v>
       </c>
       <c r="Y11" t="n">
-        <v>260.3883658759718</v>
+        <v>260.38836587597</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.60717735949976</v>
+        <v>28.60717735949791</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>30.86856503750448</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>49.72432990964055</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -1461,10 +1461,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H12" t="n">
-        <v>95.82256846136923</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.44188278383303</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>145.364587523205</v>
@@ -1506,16 +1506,16 @@
         <v>216.2889227376699</v>
       </c>
       <c r="V12" t="n">
-        <v>96.89359533220085</v>
+        <v>96.893595332199</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>66.71974724703483</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>61.37804209296843</v>
+        <v>61.37804209296658</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.5017440035875</v>
+        <v>52.50174400358566</v>
       </c>
       <c r="C13" t="n">
-        <v>38.70173884898799</v>
+        <v>38.70173884898614</v>
       </c>
       <c r="D13" t="n">
-        <v>22.32310324656638</v>
+        <v>22.32310324656453</v>
       </c>
       <c r="E13" t="n">
-        <v>21.27085310234582</v>
+        <v>21.27085310234398</v>
       </c>
       <c r="F13" t="n">
-        <v>21.73777743053213</v>
+        <v>21.73777743053029</v>
       </c>
       <c r="G13" t="n">
-        <v>37.74587087490177</v>
+        <v>37.74587087489992</v>
       </c>
       <c r="H13" t="n">
-        <v>26.19044893016419</v>
+        <v>26.19044893016234</v>
       </c>
       <c r="I13" t="n">
-        <v>5.525274884455246</v>
+        <v>5.525274884453399</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.820769996597146</v>
+        <v>6.820769996595299</v>
       </c>
       <c r="S13" t="n">
-        <v>77.70832139488067</v>
+        <v>77.70832139487882</v>
       </c>
       <c r="T13" t="n">
-        <v>100.4899439296226</v>
+        <v>100.4899439296207</v>
       </c>
       <c r="U13" t="n">
-        <v>155.0857237976438</v>
+        <v>155.0857237976419</v>
       </c>
       <c r="V13" t="n">
-        <v>128.9098804032131</v>
+        <v>128.9098804032112</v>
       </c>
       <c r="W13" t="n">
-        <v>154.0767664738264</v>
+        <v>154.0767664738245</v>
       </c>
       <c r="X13" t="n">
-        <v>99.72186846962947</v>
+        <v>99.72186846962762</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.59673622569716</v>
+        <v>90.59673622569531</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>260.8850331288904</v>
+        <v>260.8850331288884</v>
       </c>
       <c r="C14" t="n">
-        <v>248.8963500865722</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>239.8776541311001</v>
+        <v>239.8776541310981</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>282.1305160374087</v>
+        <v>282.1305160374067</v>
       </c>
       <c r="H14" t="n">
-        <v>194.1880049094285</v>
+        <v>194.1880049094265</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>18.95690544139874</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.021202767732596</v>
+        <v>42.59464412048828</v>
       </c>
       <c r="T14" t="n">
-        <v>90.29547644886767</v>
+        <v>90.29547644886564</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>204.3914103690695</v>
+        <v>143.7656455816982</v>
       </c>
       <c r="W14" t="n">
-        <v>229.6915098470265</v>
+        <v>229.6915098470244</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.991768079771</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.60717735949976</v>
+        <v>28.60717735949774</v>
       </c>
       <c r="C15" t="n">
-        <v>30.86856503750633</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>8.232179645739507</v>
       </c>
       <c r="E15" t="n">
-        <v>16.33965884974896</v>
+        <v>130.3004615856664</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>4.128789075673865</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H15" t="n">
         <v>95.86716744632758</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.39728379887479</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>145.364587523205</v>
       </c>
       <c r="T15" t="n">
-        <v>56.29837653087527</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U15" t="n">
         <v>216.2889227376699</v>
@@ -1749,10 +1749,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>66.71974724703281</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>61.37804209296641</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.5017440035875</v>
+        <v>52.50174400358549</v>
       </c>
       <c r="C16" t="n">
-        <v>38.70173884898799</v>
+        <v>38.70173884898597</v>
       </c>
       <c r="D16" t="n">
-        <v>22.32310324656638</v>
+        <v>22.32310324656436</v>
       </c>
       <c r="E16" t="n">
-        <v>21.27085310234582</v>
+        <v>21.27085310234381</v>
       </c>
       <c r="F16" t="n">
-        <v>21.73777743053213</v>
+        <v>21.73777743053012</v>
       </c>
       <c r="G16" t="n">
-        <v>37.74587087490177</v>
+        <v>37.74587087489975</v>
       </c>
       <c r="H16" t="n">
-        <v>26.19044893016419</v>
+        <v>26.19044893016217</v>
       </c>
       <c r="I16" t="n">
-        <v>5.525274884455246</v>
+        <v>5.525274884453228</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.820769996597146</v>
+        <v>6.820769996595129</v>
       </c>
       <c r="S16" t="n">
-        <v>77.70832139488067</v>
+        <v>77.70832139487865</v>
       </c>
       <c r="T16" t="n">
-        <v>100.4899439296226</v>
+        <v>100.4899439296206</v>
       </c>
       <c r="U16" t="n">
-        <v>155.0857237976438</v>
+        <v>155.0857237976418</v>
       </c>
       <c r="V16" t="n">
-        <v>128.9098804032131</v>
+        <v>128.9098804032111</v>
       </c>
       <c r="W16" t="n">
-        <v>154.0767664738264</v>
+        <v>154.0767664738243</v>
       </c>
       <c r="X16" t="n">
-        <v>99.72186846962947</v>
+        <v>99.72186846962745</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.59673622569716</v>
+        <v>90.59673622569514</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170.5895566800227</v>
+        <v>170.5895566800205</v>
       </c>
       <c r="C17" t="n">
-        <v>158.6008736377044</v>
+        <v>158.6008736377023</v>
       </c>
       <c r="D17" t="n">
-        <v>149.5821776822324</v>
+        <v>149.5821776822303</v>
       </c>
       <c r="E17" t="n">
-        <v>171.3243152521379</v>
+        <v>171.3243152521358</v>
       </c>
       <c r="F17" t="n">
-        <v>190.4961313401151</v>
+        <v>190.496131340113</v>
       </c>
       <c r="G17" t="n">
-        <v>191.835039588541</v>
+        <v>191.8350395885388</v>
       </c>
       <c r="H17" t="n">
-        <v>103.8925284605608</v>
+        <v>103.8925284605586</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>32.77538670840991</v>
+        <v>32.77538670840775</v>
       </c>
       <c r="V17" t="n">
-        <v>114.0959339202018</v>
+        <v>114.0959339201997</v>
       </c>
       <c r="W17" t="n">
-        <v>139.3960333981587</v>
+        <v>139.3960333981566</v>
       </c>
       <c r="X17" t="n">
-        <v>158.6962916309053</v>
+        <v>158.6962916309032</v>
       </c>
       <c r="Y17" t="n">
-        <v>170.0928894271041</v>
+        <v>170.0928894271019</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>118.7943423055588</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
@@ -1929,19 +1929,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U18" t="n">
-        <v>165.5621250551067</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>155.4085199241127</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>206.9263923888292</v>
+        <v>183.4007616414894</v>
       </c>
       <c r="T19" t="n">
-        <v>142.077356657517</v>
+        <v>229.7080149235711</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3037947915923</v>
+        <v>64.79024734877389</v>
       </c>
       <c r="V19" t="n">
-        <v>38.61440395434536</v>
+        <v>38.6144039543432</v>
       </c>
       <c r="W19" t="n">
-        <v>63.78129002495862</v>
+        <v>63.78129002495646</v>
       </c>
       <c r="X19" t="n">
-        <v>9.426392020761739</v>
+        <v>9.426392020759579</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.3012597768294256</v>
+        <v>0.3012597768272656</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.5895566800228</v>
+        <v>170.5895566800204</v>
       </c>
       <c r="C20" t="n">
-        <v>158.6008736377045</v>
+        <v>158.6008736377022</v>
       </c>
       <c r="D20" t="n">
-        <v>149.5821776822325</v>
+        <v>149.5821776822301</v>
       </c>
       <c r="E20" t="n">
-        <v>171.324315252138</v>
+        <v>171.3243152521357</v>
       </c>
       <c r="F20" t="n">
-        <v>190.4961313401152</v>
+        <v>190.4961313401128</v>
       </c>
       <c r="G20" t="n">
-        <v>191.8350395885411</v>
+        <v>191.8350395885387</v>
       </c>
       <c r="H20" t="n">
-        <v>103.8925284605609</v>
+        <v>103.8925284605585</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>32.77538670841</v>
+        <v>32.77538670840764</v>
       </c>
       <c r="V20" t="n">
-        <v>114.0959339202019</v>
+        <v>114.0959339201995</v>
       </c>
       <c r="W20" t="n">
-        <v>139.3960333981588</v>
+        <v>139.3960333981564</v>
       </c>
       <c r="X20" t="n">
-        <v>158.6962916309054</v>
+        <v>158.6962916309031</v>
       </c>
       <c r="Y20" t="n">
-        <v>170.0928894271042</v>
+        <v>170.0928894271018</v>
       </c>
     </row>
     <row r="21">
@@ -2172,13 +2172,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>95.86716744632758</v>
       </c>
       <c r="I21" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>118.981877422066</v>
+        <v>72.91958231389962</v>
       </c>
       <c r="T21" t="n">
-        <v>185.5164475248238</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>216.2889227376699</v>
       </c>
       <c r="V21" t="n">
-        <v>6.5981188833332</v>
+        <v>6.598118883330841</v>
       </c>
       <c r="W21" t="n">
-        <v>19.38916263620689</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>155.4085199241127</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T22" t="n">
-        <v>10.19446748075492</v>
+        <v>10.19446748075256</v>
       </c>
       <c r="U22" t="n">
-        <v>64.79024734877613</v>
+        <v>64.79024734877378</v>
       </c>
       <c r="V22" t="n">
-        <v>38.61440395434545</v>
+        <v>42.1290127746935</v>
       </c>
       <c r="W22" t="n">
-        <v>63.78129002495871</v>
+        <v>63.78129002495635</v>
       </c>
       <c r="X22" t="n">
-        <v>97.79931284942312</v>
+        <v>9.426392020759465</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.3012597768295109</v>
+        <v>0.3012597768271519</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.5895566800228</v>
+        <v>170.5895566800204</v>
       </c>
       <c r="C23" t="n">
-        <v>158.6008736377045</v>
+        <v>158.6008736377022</v>
       </c>
       <c r="D23" t="n">
-        <v>149.5821776822325</v>
+        <v>149.5821776822301</v>
       </c>
       <c r="E23" t="n">
-        <v>171.324315252138</v>
+        <v>171.3243152521357</v>
       </c>
       <c r="F23" t="n">
-        <v>190.4961313401152</v>
+        <v>190.4961313401128</v>
       </c>
       <c r="G23" t="n">
-        <v>191.8350395885411</v>
+        <v>191.8350395885387</v>
       </c>
       <c r="H23" t="n">
-        <v>103.8925284605609</v>
+        <v>103.8925284605585</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>32.77538670841</v>
+        <v>32.77538670840764</v>
       </c>
       <c r="V23" t="n">
-        <v>114.0959339202019</v>
+        <v>114.0959339201995</v>
       </c>
       <c r="W23" t="n">
-        <v>139.3960333981588</v>
+        <v>139.3960333981564</v>
       </c>
       <c r="X23" t="n">
-        <v>158.6962916309054</v>
+        <v>158.6962916309031</v>
       </c>
       <c r="Y23" t="n">
-        <v>170.0928894271042</v>
+        <v>170.0928894271018</v>
       </c>
     </row>
     <row r="24">
@@ -2403,19 +2403,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>50.16726370996089</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.44188278383303</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>145.364587523205</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>43.37132192372147</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U24" t="n">
         <v>216.2889227376699</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>6.598118883330841</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>19.38916263620453</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9639418688503</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>198.0479006218652</v>
+        <v>10.19446748075256</v>
       </c>
       <c r="U25" t="n">
-        <v>64.79024734877613</v>
+        <v>64.79024734877378</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>38.61440395434309</v>
       </c>
       <c r="W25" t="n">
-        <v>63.78129002495871</v>
+        <v>63.78129002495635</v>
       </c>
       <c r="X25" t="n">
-        <v>9.426392020761824</v>
+        <v>99.34050663955536</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.3012597768295109</v>
+        <v>0.3012597768271519</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>288.7316531105166</v>
+        <v>288.7316531105165</v>
       </c>
       <c r="C26" t="n">
-        <v>276.7429700681984</v>
+        <v>276.7429700681982</v>
       </c>
       <c r="D26" t="n">
-        <v>267.7242741127263</v>
+        <v>267.7242741127262</v>
       </c>
       <c r="E26" t="n">
-        <v>289.4664116826319</v>
+        <v>289.4664116826318</v>
       </c>
       <c r="F26" t="n">
-        <v>308.638227770609</v>
+        <v>308.6382277706089</v>
       </c>
       <c r="G26" t="n">
-        <v>309.9771360190349</v>
+        <v>309.9771360190348</v>
       </c>
       <c r="H26" t="n">
-        <v>222.0346248910547</v>
+        <v>222.0346248910546</v>
       </c>
       <c r="I26" t="n">
-        <v>46.80352542302695</v>
+        <v>46.80352542302684</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.44126410211649</v>
+        <v>70.44126410211638</v>
       </c>
       <c r="T26" t="n">
-        <v>118.1420964304939</v>
+        <v>118.1420964304938</v>
       </c>
       <c r="U26" t="n">
-        <v>150.9174831389038</v>
+        <v>150.9174831389037</v>
       </c>
       <c r="V26" t="n">
-        <v>232.2380303506957</v>
+        <v>232.2380303506956</v>
       </c>
       <c r="W26" t="n">
-        <v>257.5381298286526</v>
+        <v>257.5381298286525</v>
       </c>
       <c r="X26" t="n">
-        <v>276.8383880613993</v>
+        <v>276.8383880613991</v>
       </c>
       <c r="Y26" t="n">
-        <v>288.234985857598</v>
+        <v>288.2349858575979</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.34836398521371</v>
+        <v>80.3483639852136</v>
       </c>
       <c r="C28" t="n">
-        <v>66.54835883061419</v>
+        <v>66.54835883061408</v>
       </c>
       <c r="D28" t="n">
-        <v>50.16972322819258</v>
+        <v>50.16972322819247</v>
       </c>
       <c r="E28" t="n">
-        <v>49.11747308397203</v>
+        <v>49.11747308397192</v>
       </c>
       <c r="F28" t="n">
-        <v>49.58439741215834</v>
+        <v>49.58439741215822</v>
       </c>
       <c r="G28" t="n">
-        <v>65.59249085652797</v>
+        <v>65.59249085652786</v>
       </c>
       <c r="H28" t="n">
-        <v>54.03706891179039</v>
+        <v>54.03706891179028</v>
       </c>
       <c r="I28" t="n">
-        <v>33.37189486608145</v>
+        <v>33.37189486608133</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66738997822335</v>
+        <v>34.66738997822324</v>
       </c>
       <c r="S28" t="n">
-        <v>105.5549413765069</v>
+        <v>105.5549413765068</v>
       </c>
       <c r="T28" t="n">
-        <v>128.3365639112488</v>
+        <v>128.3365639112486</v>
       </c>
       <c r="U28" t="n">
-        <v>182.93234377927</v>
+        <v>182.9323437792699</v>
       </c>
       <c r="V28" t="n">
-        <v>156.7565003848393</v>
+        <v>156.7565003848392</v>
       </c>
       <c r="W28" t="n">
-        <v>181.9233864554525</v>
+        <v>181.9233864554524</v>
       </c>
       <c r="X28" t="n">
-        <v>127.5684884512557</v>
+        <v>127.5684884512556</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.4433562073234</v>
+        <v>118.4433562073232</v>
       </c>
     </row>
     <row r="29">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.7316531105166</v>
+        <v>288.7316531105165</v>
       </c>
       <c r="C32" t="n">
-        <v>276.7429700681984</v>
+        <v>276.7429700681982</v>
       </c>
       <c r="D32" t="n">
-        <v>267.7242741127263</v>
+        <v>267.7242741127262</v>
       </c>
       <c r="E32" t="n">
-        <v>289.4664116826319</v>
+        <v>289.4664116826318</v>
       </c>
       <c r="F32" t="n">
-        <v>308.638227770609</v>
+        <v>308.6382277706089</v>
       </c>
       <c r="G32" t="n">
-        <v>309.9771360190349</v>
+        <v>309.9771360190348</v>
       </c>
       <c r="H32" t="n">
-        <v>222.0346248910547</v>
+        <v>222.0346248910546</v>
       </c>
       <c r="I32" t="n">
-        <v>46.80352542302694</v>
+        <v>46.80352542302681</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.44126410211649</v>
+        <v>70.44126410211636</v>
       </c>
       <c r="T32" t="n">
-        <v>118.1420964304939</v>
+        <v>118.1420964304937</v>
       </c>
       <c r="U32" t="n">
-        <v>150.9174831389038</v>
+        <v>150.9174831389037</v>
       </c>
       <c r="V32" t="n">
-        <v>232.2380303506957</v>
+        <v>232.2380303506956</v>
       </c>
       <c r="W32" t="n">
-        <v>257.5381298286526</v>
+        <v>257.5381298286525</v>
       </c>
       <c r="X32" t="n">
-        <v>276.8383880613993</v>
+        <v>276.8383880613991</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.234985857598</v>
+        <v>288.2349858575979</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.34836398521369</v>
+        <v>80.34836398521357</v>
       </c>
       <c r="C34" t="n">
-        <v>66.54835883061418</v>
+        <v>66.54835883061405</v>
       </c>
       <c r="D34" t="n">
-        <v>50.16972322819257</v>
+        <v>50.16972322819244</v>
       </c>
       <c r="E34" t="n">
-        <v>49.11747308397202</v>
+        <v>49.11747308397189</v>
       </c>
       <c r="F34" t="n">
-        <v>49.58439741215832</v>
+        <v>49.5843974121582</v>
       </c>
       <c r="G34" t="n">
-        <v>65.59249085652795</v>
+        <v>65.59249085652783</v>
       </c>
       <c r="H34" t="n">
-        <v>54.03706891179038</v>
+        <v>54.03706891179025</v>
       </c>
       <c r="I34" t="n">
-        <v>33.37189486608143</v>
+        <v>33.37189486608131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66738997822334</v>
+        <v>34.66738997822321</v>
       </c>
       <c r="S34" t="n">
-        <v>105.5549413765069</v>
+        <v>105.5549413765067</v>
       </c>
       <c r="T34" t="n">
-        <v>128.3365639112488</v>
+        <v>128.3365639112486</v>
       </c>
       <c r="U34" t="n">
-        <v>182.93234377927</v>
+        <v>182.9323437792699</v>
       </c>
       <c r="V34" t="n">
-        <v>156.7565003848393</v>
+        <v>156.7565003848392</v>
       </c>
       <c r="W34" t="n">
-        <v>181.9233864554525</v>
+        <v>181.9233864554524</v>
       </c>
       <c r="X34" t="n">
-        <v>127.5684884512557</v>
+        <v>127.5684884512555</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.4433562073233</v>
+        <v>118.4433562073232</v>
       </c>
     </row>
     <row r="35">
@@ -3354,7 +3354,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>133.3468600696249</v>
       </c>
       <c r="G36" t="n">
         <v>127.1232045289026</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9639418688503</v>
+        <v>0.9139900217459016</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>27.72217962810772</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>40.8764405417248</v>
       </c>
       <c r="T37" t="n">
-        <v>75.81921495376439</v>
+        <v>63.6580630764667</v>
       </c>
       <c r="U37" t="n">
         <v>118.2538429444879</v>
@@ -3503,7 +3503,7 @@
         <v>224.0531522757345</v>
       </c>
       <c r="C38" t="n">
-        <v>212.0644692334163</v>
+        <v>212.0644692334162</v>
       </c>
       <c r="D38" t="n">
         <v>203.0457732779442</v>
@@ -3512,7 +3512,7 @@
         <v>224.7879108478498</v>
       </c>
       <c r="F38" t="n">
-        <v>243.959726935827</v>
+        <v>243.9597269358269</v>
       </c>
       <c r="G38" t="n">
         <v>245.2986351842528</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>5.762763267334407</v>
+        <v>5.762763267334378</v>
       </c>
       <c r="T38" t="n">
-        <v>53.46359559571178</v>
+        <v>53.46359559571175</v>
       </c>
       <c r="U38" t="n">
-        <v>86.23898230412175</v>
+        <v>86.23898230412172</v>
       </c>
       <c r="V38" t="n">
-        <v>167.5595295159137</v>
+        <v>167.5595295159136</v>
       </c>
       <c r="W38" t="n">
-        <v>192.8596289938706</v>
+        <v>192.8596289938705</v>
       </c>
       <c r="X38" t="n">
-        <v>212.1598872266172</v>
+        <v>212.1598872266171</v>
       </c>
       <c r="Y38" t="n">
         <v>223.5564850228159</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.66986315043161</v>
+        <v>15.66986315043158</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>1.869857995832064</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9139900217458732</v>
+        <v>0.9139900217458448</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>12.16115187729808</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>40.87644054172477</v>
+        <v>40.87644054172474</v>
       </c>
       <c r="T40" t="n">
-        <v>63.65806307646667</v>
+        <v>229.7080149235711</v>
       </c>
       <c r="U40" t="n">
         <v>118.2538429444879</v>
       </c>
       <c r="V40" t="n">
-        <v>92.0779995500572</v>
+        <v>92.07799955005717</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2448856206705</v>
+        <v>117.2448856206704</v>
       </c>
       <c r="X40" t="n">
-        <v>62.88998761647358</v>
+        <v>62.88998761647355</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.92600724983915</v>
+        <v>53.76485537254123</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.762763267334378</v>
+        <v>5.762763267334371</v>
       </c>
       <c r="T41" t="n">
-        <v>53.46359559571175</v>
+        <v>53.46359559571174</v>
       </c>
       <c r="U41" t="n">
         <v>86.23898230412172</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.44188278383347</v>
+        <v>39.44188278383303</v>
       </c>
       <c r="S42" t="n">
         <v>145.364587523205</v>
@@ -3879,7 +3879,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>238.9027100790231</v>
+        <v>238.9027100790236</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
@@ -3901,10 +3901,10 @@
         <v>1.869857995832064</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>26.66992948388769</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3940,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>203.2604676991542</v>
+        <v>40.87644054172474</v>
       </c>
       <c r="T43" t="n">
         <v>63.65806307646664</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>11.42817873294839</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0.9139900217459016</v>
@@ -4177,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>12.16115187729752</v>
       </c>
       <c r="S46" t="n">
         <v>40.8764405417248</v>
@@ -4189,7 +4189,7 @@
         <v>63.6580630764667</v>
       </c>
       <c r="U46" t="n">
-        <v>118.2538429444879</v>
+        <v>284.3037947915923</v>
       </c>
       <c r="V46" t="n">
         <v>92.07799955005723</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1084.271936214372</v>
+        <v>826.2943884798833</v>
       </c>
       <c r="C11" t="n">
-        <v>1084.271936214372</v>
+        <v>826.2943884798833</v>
       </c>
       <c r="D11" t="n">
-        <v>1084.271936214372</v>
+        <v>583.9937277414002</v>
       </c>
       <c r="E11" t="n">
-        <v>820.0095203547704</v>
+        <v>319.7313118818004</v>
       </c>
       <c r="F11" t="n">
-        <v>536.3816336992322</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="G11" t="n">
-        <v>251.4013144695264</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="H11" t="n">
-        <v>55.25181456101282</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="I11" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="J11" t="n">
-        <v>36.10342522626458</v>
+        <v>158.0430464355073</v>
       </c>
       <c r="K11" t="n">
-        <v>351.0925257100922</v>
+        <v>473.0321469193349</v>
       </c>
       <c r="L11" t="n">
-        <v>791.8343650009841</v>
+        <v>913.7739862102269</v>
       </c>
       <c r="M11" t="n">
-        <v>791.8343650009841</v>
+        <v>913.7739862102269</v>
       </c>
       <c r="N11" t="n">
-        <v>1088.253331347035</v>
+        <v>1360.553873385244</v>
       </c>
       <c r="O11" t="n">
-        <v>1492.399400986652</v>
+        <v>1764.69994302486</v>
       </c>
       <c r="P11" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="Q11" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="R11" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="S11" t="n">
-        <v>1762.146368262229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="T11" t="n">
-        <v>1670.938816293675</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="U11" t="n">
-        <v>1579.30211371235</v>
+        <v>1680.857258124032</v>
       </c>
       <c r="V11" t="n">
-        <v>1579.30211371235</v>
+        <v>1474.401288054266</v>
       </c>
       <c r="W11" t="n">
-        <v>1347.290487604243</v>
+        <v>1474.401288054266</v>
       </c>
       <c r="X11" t="n">
-        <v>1347.290487604243</v>
+        <v>1222.894451610053</v>
       </c>
       <c r="Y11" t="n">
-        <v>1084.271936214372</v>
+        <v>959.8759002201843</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>715.1580161816545</v>
+        <v>624.4749977875742</v>
       </c>
       <c r="C12" t="n">
-        <v>553.4543434226092</v>
+        <v>593.2946290628222</v>
       </c>
       <c r="D12" t="n">
-        <v>414.6157064128213</v>
+        <v>543.0680331944984</v>
       </c>
       <c r="E12" t="n">
-        <v>267.5876964696925</v>
+        <v>396.0400232513696</v>
       </c>
       <c r="F12" t="n">
-        <v>132.8938984195669</v>
+        <v>261.346225201244</v>
       </c>
       <c r="G12" t="n">
-        <v>132.8938984195669</v>
+        <v>132.9389478993222</v>
       </c>
       <c r="H12" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="I12" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="J12" t="n">
-        <v>126.102135052085</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="K12" t="n">
-        <v>406.4308839238592</v>
+        <v>115.2167064807705</v>
       </c>
       <c r="L12" t="n">
-        <v>840.610957857998</v>
+        <v>549.3967804149092</v>
       </c>
       <c r="M12" t="n">
-        <v>840.610957857998</v>
+        <v>996.1766675899261</v>
       </c>
       <c r="N12" t="n">
-        <v>1244.997107790243</v>
+        <v>996.1766675899261</v>
       </c>
       <c r="O12" t="n">
-        <v>1244.997107790243</v>
+        <v>1442.956554764943</v>
       </c>
       <c r="P12" t="n">
-        <v>1607.2118143385</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="Q12" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="R12" t="n">
-        <v>1765.330975672994</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="S12" t="n">
-        <v>1618.498058982888</v>
+        <v>1658.338344623093</v>
       </c>
       <c r="T12" t="n">
-        <v>1431.107707947712</v>
+        <v>1470.947993587918</v>
       </c>
       <c r="U12" t="n">
-        <v>1212.634048616732</v>
+        <v>1252.474334256938</v>
       </c>
       <c r="V12" t="n">
-        <v>1114.761730099358</v>
+        <v>1154.602015739565</v>
       </c>
       <c r="W12" t="n">
-        <v>873.4458613326677</v>
+        <v>913.2861469728751</v>
       </c>
       <c r="X12" t="n">
-        <v>806.0521772447537</v>
+        <v>715.3691588506697</v>
       </c>
       <c r="Y12" t="n">
-        <v>744.0541549286239</v>
+        <v>653.3711365345418</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.3509679716722</v>
+        <v>211.3509679716585</v>
       </c>
       <c r="C13" t="n">
-        <v>172.2583024676439</v>
+        <v>172.2583024676321</v>
       </c>
       <c r="D13" t="n">
-        <v>149.7097133296981</v>
+        <v>149.7097133296882</v>
       </c>
       <c r="E13" t="n">
-        <v>128.2240031253083</v>
+        <v>128.2240031253003</v>
       </c>
       <c r="F13" t="n">
-        <v>106.2666521853769</v>
+        <v>106.2666521853707</v>
       </c>
       <c r="G13" t="n">
-        <v>68.13950988749633</v>
+        <v>68.13950988749201</v>
       </c>
       <c r="H13" t="n">
-        <v>41.68451096813857</v>
+        <v>41.68451096813611</v>
       </c>
       <c r="I13" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="J13" t="n">
-        <v>77.19703091866825</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="K13" t="n">
-        <v>269.3925079853535</v>
+        <v>228.2989022929511</v>
       </c>
       <c r="L13" t="n">
-        <v>409.2407404269268</v>
+        <v>368.1471347345243</v>
       </c>
       <c r="M13" t="n">
-        <v>568.6085404209448</v>
+        <v>527.5149347285424</v>
       </c>
       <c r="N13" t="n">
-        <v>855.347278088921</v>
+        <v>743.0901936061834</v>
       </c>
       <c r="O13" t="n">
-        <v>991.1180939307246</v>
+        <v>878.8610094479869</v>
       </c>
       <c r="P13" t="n">
-        <v>1086.009306047124</v>
+        <v>973.7522215643868</v>
       </c>
       <c r="Q13" t="n">
-        <v>1086.009306047124</v>
+        <v>1086.009306047094</v>
       </c>
       <c r="R13" t="n">
-        <v>1079.119639383895</v>
+        <v>1079.119639383867</v>
       </c>
       <c r="S13" t="n">
-        <v>1000.626385449672</v>
+        <v>1000.626385449645</v>
       </c>
       <c r="T13" t="n">
-        <v>899.1213915813664</v>
+        <v>899.1213915813416</v>
       </c>
       <c r="U13" t="n">
-        <v>742.4691453211202</v>
+        <v>742.4691453210972</v>
       </c>
       <c r="V13" t="n">
-        <v>612.2571449138343</v>
+        <v>612.2571449138131</v>
       </c>
       <c r="W13" t="n">
-        <v>456.6240474655249</v>
+        <v>456.6240474655056</v>
       </c>
       <c r="X13" t="n">
-        <v>355.8948873951921</v>
+        <v>355.8948873951747</v>
       </c>
       <c r="Y13" t="n">
-        <v>264.3830326217606</v>
+        <v>264.3830326217451</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1010.944359735871</v>
+        <v>778.6822944377082</v>
       </c>
       <c r="C14" t="n">
-        <v>759.5339051029695</v>
+        <v>778.6822944377082</v>
       </c>
       <c r="D14" t="n">
-        <v>517.2332443644841</v>
+        <v>536.3816336992252</v>
       </c>
       <c r="E14" t="n">
-        <v>517.2332443644841</v>
+        <v>536.3816336992252</v>
       </c>
       <c r="F14" t="n">
-        <v>517.2332443644841</v>
+        <v>536.3816336992252</v>
       </c>
       <c r="G14" t="n">
-        <v>232.2529251347783</v>
+        <v>251.4013144695218</v>
       </c>
       <c r="H14" t="n">
-        <v>36.10342522626458</v>
+        <v>55.25181456101018</v>
       </c>
       <c r="I14" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="J14" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="K14" t="n">
-        <v>351.0925257100922</v>
+        <v>351.0925257100916</v>
       </c>
       <c r="L14" t="n">
-        <v>791.8343650009841</v>
+        <v>791.8343650009836</v>
       </c>
       <c r="M14" t="n">
-        <v>1238.614252176008</v>
+        <v>1238.614252176</v>
       </c>
       <c r="N14" t="n">
-        <v>1238.614252176008</v>
+        <v>1238.614252176</v>
       </c>
       <c r="O14" t="n">
-        <v>1492.399400986652</v>
+        <v>1642.760321815617</v>
       </c>
       <c r="P14" t="n">
-        <v>1805.171261313229</v>
+        <v>1647.196693636533</v>
       </c>
       <c r="Q14" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="R14" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="S14" t="n">
-        <v>1804.139743366024</v>
+        <v>1762.146368262201</v>
       </c>
       <c r="T14" t="n">
-        <v>1712.932191397473</v>
+        <v>1670.93881629365</v>
       </c>
       <c r="U14" t="n">
-        <v>1712.932191397473</v>
+        <v>1670.93881629365</v>
       </c>
       <c r="V14" t="n">
-        <v>1506.476221327706</v>
+        <v>1525.720992473752</v>
       </c>
       <c r="W14" t="n">
-        <v>1274.464595219598</v>
+        <v>1293.709366365647</v>
       </c>
       <c r="X14" t="n">
-        <v>1274.464595219598</v>
+        <v>1042.202529921434</v>
       </c>
       <c r="Y14" t="n">
-        <v>1274.464595219598</v>
+        <v>1042.202529921434</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>454.1564575928275</v>
+        <v>624.4749977875748</v>
       </c>
       <c r="C15" t="n">
-        <v>422.9760888680736</v>
+        <v>462.7713250285295</v>
       </c>
       <c r="D15" t="n">
-        <v>284.1374518582857</v>
+        <v>454.4559920530351</v>
       </c>
       <c r="E15" t="n">
-        <v>267.6327459494484</v>
+        <v>322.8393641887255</v>
       </c>
       <c r="F15" t="n">
-        <v>132.9389478993228</v>
+        <v>318.6688701728934</v>
       </c>
       <c r="G15" t="n">
-        <v>132.9389478993228</v>
+        <v>190.2615928709716</v>
       </c>
       <c r="H15" t="n">
-        <v>36.10342522626458</v>
+        <v>93.42607019791339</v>
       </c>
       <c r="I15" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="J15" t="n">
-        <v>126.102135052085</v>
+        <v>126.1021350520844</v>
       </c>
       <c r="K15" t="n">
-        <v>406.4308839238592</v>
+        <v>126.1021350520844</v>
       </c>
       <c r="L15" t="n">
-        <v>840.610957857998</v>
+        <v>351.4373334401801</v>
       </c>
       <c r="M15" t="n">
-        <v>840.610957857998</v>
+        <v>798.2172206151969</v>
       </c>
       <c r="N15" t="n">
-        <v>1244.997107790243</v>
+        <v>798.2172206151969</v>
       </c>
       <c r="O15" t="n">
-        <v>1244.997107790243</v>
+        <v>1244.997107790214</v>
       </c>
       <c r="P15" t="n">
-        <v>1607.2118143385</v>
+        <v>1607.21181433847</v>
       </c>
       <c r="Q15" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.376025152749</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="S15" t="n">
-        <v>1618.543108462643</v>
+        <v>1658.338344623093</v>
       </c>
       <c r="T15" t="n">
-        <v>1561.676061461759</v>
+        <v>1470.947993587918</v>
       </c>
       <c r="U15" t="n">
-        <v>1343.20240213078</v>
+        <v>1252.474334256938</v>
       </c>
       <c r="V15" t="n">
-        <v>1114.806779579113</v>
+        <v>1024.078711705272</v>
       </c>
       <c r="W15" t="n">
-        <v>873.4909108124236</v>
+        <v>782.7628429385819</v>
       </c>
       <c r="X15" t="n">
-        <v>675.5739226902182</v>
+        <v>715.3691588506699</v>
       </c>
       <c r="Y15" t="n">
-        <v>483.052596339797</v>
+        <v>653.3711365345422</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.3509679716722</v>
+        <v>211.3509679716573</v>
       </c>
       <c r="C16" t="n">
-        <v>172.2583024676439</v>
+        <v>172.2583024676311</v>
       </c>
       <c r="D16" t="n">
-        <v>149.7097133296981</v>
+        <v>149.7097133296873</v>
       </c>
       <c r="E16" t="n">
-        <v>128.2240031253083</v>
+        <v>128.2240031252996</v>
       </c>
       <c r="F16" t="n">
-        <v>106.2666521853769</v>
+        <v>106.2666521853702</v>
       </c>
       <c r="G16" t="n">
-        <v>68.13950988749633</v>
+        <v>68.13950988749167</v>
       </c>
       <c r="H16" t="n">
-        <v>41.68451096813857</v>
+        <v>41.68451096813594</v>
       </c>
       <c r="I16" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="J16" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="K16" t="n">
-        <v>100.3730120089408</v>
+        <v>100.3730120089402</v>
       </c>
       <c r="L16" t="n">
-        <v>281.3148501429177</v>
+        <v>240.2212444505135</v>
       </c>
       <c r="M16" t="n">
-        <v>568.6085404209448</v>
+        <v>527.5149347285425</v>
       </c>
       <c r="N16" t="n">
-        <v>855.347278088921</v>
+        <v>686.3277821125096</v>
       </c>
       <c r="O16" t="n">
-        <v>991.1180939307246</v>
+        <v>822.0985979543132</v>
       </c>
       <c r="P16" t="n">
-        <v>1086.009306047124</v>
+        <v>973.7522215643838</v>
       </c>
       <c r="Q16" t="n">
-        <v>1086.009306047124</v>
+        <v>1086.009306047092</v>
       </c>
       <c r="R16" t="n">
-        <v>1079.119639383895</v>
+        <v>1079.119639383864</v>
       </c>
       <c r="S16" t="n">
-        <v>1000.626385449672</v>
+        <v>1000.626385449643</v>
       </c>
       <c r="T16" t="n">
-        <v>899.1213915813664</v>
+        <v>899.1213915813396</v>
       </c>
       <c r="U16" t="n">
-        <v>742.4691453211202</v>
+        <v>742.4691453210953</v>
       </c>
       <c r="V16" t="n">
-        <v>612.2571449138343</v>
+        <v>612.2571449138113</v>
       </c>
       <c r="W16" t="n">
-        <v>456.6240474655249</v>
+        <v>456.6240474655038</v>
       </c>
       <c r="X16" t="n">
-        <v>355.8948873951921</v>
+        <v>355.8948873951731</v>
       </c>
       <c r="Y16" t="n">
-        <v>264.3830326217606</v>
+        <v>264.3830326217437</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1011.589350439691</v>
+        <v>1011.589350439677</v>
       </c>
       <c r="C17" t="n">
-        <v>851.3864477753426</v>
+        <v>851.3864477753311</v>
       </c>
       <c r="D17" t="n">
-        <v>700.2933390054109</v>
+        <v>700.2933390054014</v>
       </c>
       <c r="E17" t="n">
-        <v>527.2384751143625</v>
+        <v>527.2384751143552</v>
       </c>
       <c r="F17" t="n">
-        <v>334.8181404273773</v>
+        <v>334.8181404273724</v>
       </c>
       <c r="G17" t="n">
-        <v>141.045373166225</v>
+        <v>141.0453731662222</v>
       </c>
       <c r="H17" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="I17" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="J17" t="n">
-        <v>36.10342522626458</v>
+        <v>158.0430464355073</v>
       </c>
       <c r="K17" t="n">
-        <v>351.0925257100922</v>
+        <v>473.0321469193349</v>
       </c>
       <c r="L17" t="n">
-        <v>791.8343650009841</v>
+        <v>913.7739862102269</v>
       </c>
       <c r="M17" t="n">
-        <v>791.8343650009841</v>
+        <v>913.7739862102269</v>
       </c>
       <c r="N17" t="n">
-        <v>1238.614252176008</v>
+        <v>1360.553873385244</v>
       </c>
       <c r="O17" t="n">
-        <v>1642.760321815625</v>
+        <v>1764.69994302486</v>
       </c>
       <c r="P17" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="Q17" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="R17" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="S17" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="T17" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313202</v>
       </c>
       <c r="U17" t="n">
-        <v>1772.064810092613</v>
+        <v>1772.064810092588</v>
       </c>
       <c r="V17" t="n">
-        <v>1656.816391991399</v>
+        <v>1656.816391991376</v>
       </c>
       <c r="W17" t="n">
-        <v>1516.012317851844</v>
+        <v>1516.012317851824</v>
       </c>
       <c r="X17" t="n">
-        <v>1355.713033376182</v>
+        <v>1355.713033376164</v>
       </c>
       <c r="Y17" t="n">
-        <v>1183.902033954865</v>
+        <v>1183.902033954849</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>618.3675429883523</v>
+        <v>490.8039026398048</v>
       </c>
       <c r="C18" t="n">
-        <v>456.663870229307</v>
+        <v>329.1002298807595</v>
       </c>
       <c r="D18" t="n">
-        <v>317.825233219519</v>
+        <v>190.2615928709716</v>
       </c>
       <c r="E18" t="n">
-        <v>170.7972232763902</v>
+        <v>190.2615928709716</v>
       </c>
       <c r="F18" t="n">
-        <v>36.10342522626458</v>
+        <v>190.2615928709716</v>
       </c>
       <c r="G18" t="n">
-        <v>36.10342522626458</v>
+        <v>190.2615928709716</v>
       </c>
       <c r="H18" t="n">
-        <v>36.10342522626458</v>
+        <v>93.42607019791339</v>
       </c>
       <c r="I18" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="J18" t="n">
-        <v>126.102135052085</v>
+        <v>126.1021350520844</v>
       </c>
       <c r="K18" t="n">
-        <v>406.4308839238592</v>
+        <v>126.1021350520844</v>
       </c>
       <c r="L18" t="n">
-        <v>840.610957857998</v>
+        <v>560.2822089862232</v>
       </c>
       <c r="M18" t="n">
-        <v>840.610957857998</v>
+        <v>560.2822089862232</v>
       </c>
       <c r="N18" t="n">
-        <v>840.610957857998</v>
+        <v>798.2172206151969</v>
       </c>
       <c r="O18" t="n">
-        <v>1244.997107790243</v>
+        <v>1244.997107790214</v>
       </c>
       <c r="P18" t="n">
-        <v>1607.2118143385</v>
+        <v>1607.21181433847</v>
       </c>
       <c r="Q18" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="R18" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="S18" t="n">
-        <v>1805.171261313229</v>
+        <v>1658.338344623093</v>
       </c>
       <c r="T18" t="n">
-        <v>1805.171261313229</v>
+        <v>1470.947993587918</v>
       </c>
       <c r="U18" t="n">
-        <v>1637.936791560596</v>
+        <v>1470.947993587918</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.54116900893</v>
+        <v>1242.552371036252</v>
       </c>
       <c r="W18" t="n">
-        <v>1168.22530024224</v>
+        <v>1001.236502269562</v>
       </c>
       <c r="X18" t="n">
-        <v>970.3083121200344</v>
+        <v>803.3195141473561</v>
       </c>
       <c r="Y18" t="n">
-        <v>777.7869857696132</v>
+        <v>610.7981877969349</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.10342522626458</v>
+        <v>193.0817281799132</v>
       </c>
       <c r="C19" t="n">
-        <v>36.10342522626458</v>
+        <v>193.0817281799132</v>
       </c>
       <c r="D19" t="n">
-        <v>36.10342522626458</v>
+        <v>193.0817281799132</v>
       </c>
       <c r="E19" t="n">
-        <v>36.10342522626458</v>
+        <v>193.0817281799132</v>
       </c>
       <c r="F19" t="n">
-        <v>36.10342522626458</v>
+        <v>193.0817281799132</v>
       </c>
       <c r="G19" t="n">
-        <v>36.10342522626458</v>
+        <v>193.0817281799132</v>
       </c>
       <c r="H19" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="I19" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="J19" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="K19" t="n">
-        <v>100.3730120089408</v>
+        <v>100.3730120089402</v>
       </c>
       <c r="L19" t="n">
-        <v>240.2212444505141</v>
+        <v>240.2212444505135</v>
       </c>
       <c r="M19" t="n">
-        <v>399.5890444445321</v>
+        <v>399.5890444445315</v>
       </c>
       <c r="N19" t="n">
-        <v>558.4018918284992</v>
+        <v>558.4018918284986</v>
       </c>
       <c r="O19" t="n">
-        <v>694.1727076703028</v>
+        <v>694.1727076703021</v>
       </c>
       <c r="P19" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867019</v>
       </c>
       <c r="Q19" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867019</v>
       </c>
       <c r="R19" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867019</v>
       </c>
       <c r="S19" t="n">
-        <v>580.0473618181883</v>
+        <v>603.8106251993389</v>
       </c>
       <c r="T19" t="n">
-        <v>436.5348803459489</v>
+        <v>371.7823272967419</v>
       </c>
       <c r="U19" t="n">
-        <v>149.3593300514112</v>
+        <v>306.3376330050511</v>
       </c>
       <c r="V19" t="n">
-        <v>110.3548816126785</v>
+        <v>267.3331845663206</v>
       </c>
       <c r="W19" t="n">
-        <v>45.92933613292232</v>
+        <v>202.9076390865666</v>
       </c>
       <c r="X19" t="n">
-        <v>36.40772803114279</v>
+        <v>193.3860309847892</v>
       </c>
       <c r="Y19" t="n">
-        <v>36.10342522626458</v>
+        <v>193.0817281799132</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1011.589350439691</v>
+        <v>1011.589350439677</v>
       </c>
       <c r="C20" t="n">
-        <v>851.3864477753427</v>
+        <v>851.386447775331</v>
       </c>
       <c r="D20" t="n">
-        <v>700.293339005411</v>
+        <v>700.2933390054015</v>
       </c>
       <c r="E20" t="n">
-        <v>527.2384751143625</v>
+        <v>527.2384751143553</v>
       </c>
       <c r="F20" t="n">
-        <v>334.8181404273774</v>
+        <v>334.8181404273728</v>
       </c>
       <c r="G20" t="n">
-        <v>141.0453731662251</v>
+        <v>141.0453731662221</v>
       </c>
       <c r="H20" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="I20" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="J20" t="n">
-        <v>36.10342522626458</v>
+        <v>158.0430464355073</v>
       </c>
       <c r="K20" t="n">
-        <v>351.0925257100922</v>
+        <v>473.0321469193349</v>
       </c>
       <c r="L20" t="n">
-        <v>507.4654173235641</v>
+        <v>473.0321469193349</v>
       </c>
       <c r="M20" t="n">
-        <v>954.2453044985882</v>
+        <v>919.8120340943517</v>
       </c>
       <c r="N20" t="n">
-        <v>1401.025191673612</v>
+        <v>930.2787636703391</v>
       </c>
       <c r="O20" t="n">
-        <v>1805.171261313229</v>
+        <v>1334.424833309956</v>
       </c>
       <c r="P20" t="n">
-        <v>1805.171261313229</v>
+        <v>1647.196693636533</v>
       </c>
       <c r="Q20" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="R20" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="S20" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="T20" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313201</v>
       </c>
       <c r="U20" t="n">
-        <v>1772.064810092613</v>
+        <v>1772.064810092587</v>
       </c>
       <c r="V20" t="n">
-        <v>1656.816391991399</v>
+        <v>1656.816391991376</v>
       </c>
       <c r="W20" t="n">
-        <v>1516.012317851845</v>
+        <v>1516.012317851824</v>
       </c>
       <c r="X20" t="n">
-        <v>1355.713033376182</v>
+        <v>1355.713033376164</v>
       </c>
       <c r="Y20" t="n">
-        <v>1183.902033954865</v>
+        <v>1183.902033954849</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>900.9329879349815</v>
+        <v>715.2030656614097</v>
       </c>
       <c r="C21" t="n">
-        <v>739.2293151759362</v>
+        <v>553.4993929023644</v>
       </c>
       <c r="D21" t="n">
-        <v>600.3906781661483</v>
+        <v>414.6607558925766</v>
       </c>
       <c r="E21" t="n">
-        <v>453.3626682230196</v>
+        <v>267.6327459494478</v>
       </c>
       <c r="F21" t="n">
-        <v>318.6688701728939</v>
+        <v>132.9389478993222</v>
       </c>
       <c r="G21" t="n">
-        <v>190.2615928709722</v>
+        <v>132.9389478993222</v>
       </c>
       <c r="H21" t="n">
-        <v>93.42607019791399</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="I21" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="J21" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="K21" t="n">
-        <v>36.10342522626458</v>
+        <v>316.4321740980382</v>
       </c>
       <c r="L21" t="n">
-        <v>470.2834991604033</v>
+        <v>750.6122480321769</v>
       </c>
       <c r="M21" t="n">
-        <v>470.2834991604033</v>
+        <v>750.6122480321769</v>
       </c>
       <c r="N21" t="n">
-        <v>798.2172206152193</v>
+        <v>996.1766675899261</v>
       </c>
       <c r="O21" t="n">
-        <v>1244.997107790243</v>
+        <v>1442.956554764943</v>
       </c>
       <c r="P21" t="n">
-        <v>1607.2118143385</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="Q21" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="R21" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="S21" t="n">
-        <v>1684.987546745486</v>
+        <v>1731.515117561785</v>
       </c>
       <c r="T21" t="n">
-        <v>1497.59719571031</v>
+        <v>1731.515117561785</v>
       </c>
       <c r="U21" t="n">
-        <v>1279.12353637933</v>
+        <v>1513.041458230806</v>
       </c>
       <c r="V21" t="n">
-        <v>1272.458769830509</v>
+        <v>1506.376691681987</v>
       </c>
       <c r="W21" t="n">
-        <v>1252.873757066664</v>
+        <v>1265.060822915297</v>
       </c>
       <c r="X21" t="n">
-        <v>1252.873757066664</v>
+        <v>1067.143834793092</v>
       </c>
       <c r="Y21" t="n">
-        <v>1060.352430716242</v>
+        <v>874.6225084426706</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>510.8003021755028</v>
+        <v>234.0992941572971</v>
       </c>
       <c r="C22" t="n">
-        <v>341.184332637183</v>
+        <v>234.0992941572971</v>
       </c>
       <c r="D22" t="n">
-        <v>188.1124394649458</v>
+        <v>234.0992941572971</v>
       </c>
       <c r="E22" t="n">
-        <v>36.10342522626458</v>
+        <v>234.0992941572971</v>
       </c>
       <c r="F22" t="n">
-        <v>36.10342522626458</v>
+        <v>234.0992941572971</v>
       </c>
       <c r="G22" t="n">
-        <v>36.10342522626458</v>
+        <v>234.0992941572971</v>
       </c>
       <c r="H22" t="n">
-        <v>36.10342522626458</v>
+        <v>77.12099120364792</v>
       </c>
       <c r="I22" t="n">
-        <v>36.10342522626458</v>
+        <v>77.12099120364792</v>
       </c>
       <c r="J22" t="n">
-        <v>36.10342522626458</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="K22" t="n">
-        <v>100.3730120089408</v>
+        <v>100.3730120089402</v>
       </c>
       <c r="L22" t="n">
-        <v>240.2212444505141</v>
+        <v>240.2212444505135</v>
       </c>
       <c r="M22" t="n">
-        <v>399.5890444445321</v>
+        <v>399.5890444445315</v>
       </c>
       <c r="N22" t="n">
-        <v>558.4018918284992</v>
+        <v>558.4018918284986</v>
       </c>
       <c r="O22" t="n">
-        <v>694.1727076703028</v>
+        <v>694.1727076703021</v>
       </c>
       <c r="P22" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867019</v>
       </c>
       <c r="Q22" t="n">
-        <v>789.0639197867026</v>
+        <v>773.0769737594565</v>
       </c>
       <c r="R22" t="n">
-        <v>789.0639197867026</v>
+        <v>635.6640030619355</v>
       </c>
       <c r="S22" t="n">
-        <v>789.0639197867026</v>
+        <v>426.6474450934212</v>
       </c>
       <c r="T22" t="n">
-        <v>778.7664778869502</v>
+        <v>416.3500031936711</v>
       </c>
       <c r="U22" t="n">
-        <v>713.3217835952571</v>
+        <v>350.9053089019804</v>
       </c>
       <c r="V22" t="n">
-        <v>674.3173351565243</v>
+        <v>308.3507505437042</v>
       </c>
       <c r="W22" t="n">
-        <v>609.8917896767681</v>
+        <v>243.9252050639503</v>
       </c>
       <c r="X22" t="n">
-        <v>511.1046049803811</v>
+        <v>234.403596962173</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.8003021755028</v>
+        <v>234.0992941572971</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1011.589350439691</v>
+        <v>1011.589350439676</v>
       </c>
       <c r="C23" t="n">
-        <v>851.386447775343</v>
+        <v>851.38644777533</v>
       </c>
       <c r="D23" t="n">
-        <v>700.2933390054112</v>
+        <v>700.2933390054005</v>
       </c>
       <c r="E23" t="n">
-        <v>527.2384751143627</v>
+        <v>527.2384751143544</v>
       </c>
       <c r="F23" t="n">
-        <v>334.8181404273777</v>
+        <v>334.8181404273718</v>
       </c>
       <c r="G23" t="n">
-        <v>141.0453731662251</v>
+        <v>141.0453731662221</v>
       </c>
       <c r="H23" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="I23" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="J23" t="n">
-        <v>36.1034252262646</v>
+        <v>158.0430464355073</v>
       </c>
       <c r="K23" t="n">
-        <v>351.0925257100922</v>
+        <v>473.0321469193349</v>
       </c>
       <c r="L23" t="n">
-        <v>351.0925257100922</v>
+        <v>473.0321469193349</v>
       </c>
       <c r="M23" t="n">
-        <v>797.8724128851165</v>
+        <v>919.8120340943517</v>
       </c>
       <c r="N23" t="n">
-        <v>930.2787636703696</v>
+        <v>1366.591921269368</v>
       </c>
       <c r="O23" t="n">
-        <v>1334.424833309986</v>
+        <v>1770.737990908985</v>
       </c>
       <c r="P23" t="n">
-        <v>1647.196693636563</v>
+        <v>1770.737990908985</v>
       </c>
       <c r="Q23" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="R23" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="S23" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313197</v>
       </c>
       <c r="T23" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="U23" t="n">
-        <v>1772.064810092613</v>
+        <v>1772.064810092586</v>
       </c>
       <c r="V23" t="n">
-        <v>1656.816391991399</v>
+        <v>1656.816391991375</v>
       </c>
       <c r="W23" t="n">
-        <v>1516.012317851845</v>
+        <v>1516.012317851822</v>
       </c>
       <c r="X23" t="n">
-        <v>1355.713033376183</v>
+        <v>1355.713033376163</v>
       </c>
       <c r="Y23" t="n">
-        <v>1183.902033954865</v>
+        <v>1183.902033954848</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>336.6457349950978</v>
+        <v>823.1997143804945</v>
       </c>
       <c r="C24" t="n">
-        <v>174.9420622360525</v>
+        <v>661.4960416214492</v>
       </c>
       <c r="D24" t="n">
-        <v>36.1034252262646</v>
+        <v>522.6574046116613</v>
       </c>
       <c r="E24" t="n">
-        <v>36.1034252262646</v>
+        <v>375.6293946685325</v>
       </c>
       <c r="F24" t="n">
-        <v>36.1034252262646</v>
+        <v>240.9355966184068</v>
       </c>
       <c r="G24" t="n">
-        <v>36.1034252262646</v>
+        <v>190.2615928709716</v>
       </c>
       <c r="H24" t="n">
-        <v>36.1034252262646</v>
+        <v>93.42607019791339</v>
       </c>
       <c r="I24" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="J24" t="n">
-        <v>126.102135052085</v>
+        <v>126.1021350520844</v>
       </c>
       <c r="K24" t="n">
-        <v>406.4308839238592</v>
+        <v>406.4308839238586</v>
       </c>
       <c r="L24" t="n">
-        <v>840.610957857998</v>
+        <v>840.6109578579974</v>
       </c>
       <c r="M24" t="n">
-        <v>840.610957857998</v>
+        <v>996.1766675899261</v>
       </c>
       <c r="N24" t="n">
-        <v>840.610957857998</v>
+        <v>996.1766675899261</v>
       </c>
       <c r="O24" t="n">
-        <v>1244.997107790244</v>
+        <v>1442.956554764943</v>
       </c>
       <c r="P24" t="n">
-        <v>1607.211814338501</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="Q24" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.330975672994</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="S24" t="n">
-        <v>1618.498058982888</v>
+        <v>1805.171261313199</v>
       </c>
       <c r="T24" t="n">
-        <v>1574.688642898321</v>
+        <v>1617.780910278024</v>
       </c>
       <c r="U24" t="n">
-        <v>1356.214983567342</v>
+        <v>1399.307250947044</v>
       </c>
       <c r="V24" t="n">
-        <v>1127.819361015675</v>
+        <v>1392.642484398225</v>
       </c>
       <c r="W24" t="n">
-        <v>886.5034922489854</v>
+        <v>1373.057471634382</v>
       </c>
       <c r="X24" t="n">
-        <v>688.5865041267799</v>
+        <v>1175.140483512177</v>
       </c>
       <c r="Y24" t="n">
-        <v>496.0651777763587</v>
+        <v>982.6191571617554</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.5840802004875</v>
+        <v>509.2435407713401</v>
       </c>
       <c r="C25" t="n">
-        <v>188.5840802004875</v>
+        <v>509.2435407713401</v>
       </c>
       <c r="D25" t="n">
-        <v>188.5840802004875</v>
+        <v>509.2435407713401</v>
       </c>
       <c r="E25" t="n">
-        <v>188.5840802004875</v>
+        <v>357.2345265326589</v>
       </c>
       <c r="F25" t="n">
-        <v>36.1034252262646</v>
+        <v>204.753871558436</v>
       </c>
       <c r="G25" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="H25" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="I25" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="J25" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626399</v>
       </c>
       <c r="K25" t="n">
-        <v>100.3730120089409</v>
+        <v>100.3730120089402</v>
       </c>
       <c r="L25" t="n">
-        <v>240.2212444505141</v>
+        <v>240.2212444505135</v>
       </c>
       <c r="M25" t="n">
-        <v>399.5890444445321</v>
+        <v>399.5890444445315</v>
       </c>
       <c r="N25" t="n">
-        <v>558.4018918284993</v>
+        <v>558.4018918284986</v>
       </c>
       <c r="O25" t="n">
-        <v>694.1727076703028</v>
+        <v>694.1727076703021</v>
       </c>
       <c r="P25" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867019</v>
       </c>
       <c r="Q25" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867019</v>
       </c>
       <c r="R25" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867019</v>
       </c>
       <c r="S25" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867019</v>
       </c>
       <c r="T25" t="n">
-        <v>589.0155353201721</v>
+        <v>778.7664778869519</v>
       </c>
       <c r="U25" t="n">
-        <v>523.5708410284791</v>
+        <v>713.3217835952612</v>
       </c>
       <c r="V25" t="n">
-        <v>262.8355365869017</v>
+        <v>674.3173351565308</v>
       </c>
       <c r="W25" t="n">
-        <v>198.4099911071454</v>
+        <v>609.891789676777</v>
       </c>
       <c r="X25" t="n">
-        <v>188.8883830053658</v>
+        <v>509.547843576216</v>
       </c>
       <c r="Y25" t="n">
-        <v>188.5840802004875</v>
+        <v>509.2435407713401</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1808.955690151402</v>
+        <v>1808.955690151401</v>
       </c>
       <c r="C26" t="n">
-        <v>1529.417336547161</v>
+        <v>1529.41733654716</v>
       </c>
       <c r="D26" t="n">
         <v>1258.988776837336</v>
       </c>
       <c r="E26" t="n">
-        <v>966.5984620063952</v>
+        <v>966.5984620063944</v>
       </c>
       <c r="F26" t="n">
-        <v>654.8426763795173</v>
+        <v>654.8426763795167</v>
       </c>
       <c r="G26" t="n">
-        <v>341.7344581784716</v>
+        <v>341.7344581784714</v>
       </c>
       <c r="H26" t="n">
-        <v>117.4570592986184</v>
+        <v>117.4570592986183</v>
       </c>
       <c r="I26" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="J26" t="n">
-        <v>247.8996690285888</v>
+        <v>292.4781287039731</v>
       </c>
       <c r="K26" t="n">
-        <v>663.2465060146154</v>
+        <v>707.8249656899998</v>
       </c>
       <c r="L26" t="n">
-        <v>1204.346081807706</v>
+        <v>1248.924541483091</v>
       </c>
       <c r="M26" t="n">
-        <v>1801.263694742705</v>
+        <v>1845.842154418089</v>
       </c>
       <c r="N26" t="n">
-        <v>2384.945337221515</v>
+        <v>2429.5237968969</v>
       </c>
       <c r="O26" t="n">
-        <v>2889.449143363331</v>
+        <v>2889.449143363328</v>
       </c>
       <c r="P26" t="n">
-        <v>3302.578740192107</v>
+        <v>3302.578740192105</v>
       </c>
       <c r="Q26" t="n">
-        <v>3460.553307868773</v>
+        <v>3460.553307868771</v>
       </c>
       <c r="R26" t="n">
-        <v>3509.03854962653</v>
+        <v>3509.038549626528</v>
       </c>
       <c r="S26" t="n">
-        <v>3437.88575760419</v>
+        <v>3437.885757604189</v>
       </c>
       <c r="T26" t="n">
-        <v>3318.550306664297</v>
+        <v>3318.550306664296</v>
       </c>
       <c r="U26" t="n">
-        <v>3166.108404503788</v>
+        <v>3166.108404503786</v>
       </c>
       <c r="V26" t="n">
-        <v>2931.524535462681</v>
+        <v>2931.52453546268</v>
       </c>
       <c r="W26" t="n">
-        <v>2671.385010383234</v>
+        <v>2671.385010383232</v>
       </c>
       <c r="X26" t="n">
-        <v>2391.75027496768</v>
+        <v>2391.750274967678</v>
       </c>
       <c r="Y26" t="n">
-        <v>2100.603824606469</v>
+        <v>2100.603824606468</v>
       </c>
     </row>
     <row r="27">
@@ -6291,16 +6291,16 @@
         <v>487.4400139892856</v>
       </c>
       <c r="F27" t="n">
-        <v>352.74621593916</v>
+        <v>352.7462159391599</v>
       </c>
       <c r="G27" t="n">
-        <v>224.3389386372382</v>
+        <v>224.3389386372381</v>
       </c>
       <c r="H27" t="n">
         <v>127.50341596418</v>
       </c>
       <c r="I27" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="J27" t="n">
         <v>160.179480818351</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>442.3236065373155</v>
+        <v>442.3236065373146</v>
       </c>
       <c r="C28" t="n">
-        <v>375.1030420619476</v>
+        <v>375.1030420619468</v>
       </c>
       <c r="D28" t="n">
-        <v>324.4265539526621</v>
+        <v>324.4265539526615</v>
       </c>
       <c r="E28" t="n">
-        <v>274.8129447769328</v>
+        <v>274.8129447769323</v>
       </c>
       <c r="F28" t="n">
-        <v>224.7276948656617</v>
+        <v>224.7276948656614</v>
       </c>
       <c r="G28" t="n">
-        <v>158.4726535964415</v>
+        <v>158.4726535964413</v>
       </c>
       <c r="H28" t="n">
-        <v>103.8897557057442</v>
+        <v>103.889755705744</v>
       </c>
       <c r="I28" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="J28" t="n">
-        <v>130.3371910802957</v>
+        <v>130.3371910802935</v>
       </c>
       <c r="K28" t="n">
-        <v>294.9645143651711</v>
+        <v>294.964514365169</v>
       </c>
       <c r="L28" t="n">
-        <v>535.1704833089434</v>
+        <v>535.1704833089414</v>
       </c>
       <c r="M28" t="n">
-        <v>794.8960198051606</v>
+        <v>794.8960198051586</v>
       </c>
       <c r="N28" t="n">
-        <v>1054.066603691327</v>
+        <v>1054.066603691325</v>
       </c>
       <c r="O28" t="n">
-        <v>1290.19515603533</v>
+        <v>1290.195156035327</v>
       </c>
       <c r="P28" t="n">
-        <v>1485.444104653928</v>
+        <v>1485.444104653927</v>
       </c>
       <c r="Q28" t="n">
-        <v>1570.133035354824</v>
+        <v>1570.133035354822</v>
       </c>
       <c r="R28" t="n">
-        <v>1535.115469720255</v>
+        <v>1535.115469720253</v>
       </c>
       <c r="S28" t="n">
-        <v>1428.494316814693</v>
+        <v>1428.494316814691</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.861423975048</v>
+        <v>1298.861423975046</v>
       </c>
       <c r="U28" t="n">
-        <v>1114.081278743462</v>
+        <v>1114.08127874346</v>
       </c>
       <c r="V28" t="n">
-        <v>955.7413793648359</v>
+        <v>955.7413793648346</v>
       </c>
       <c r="W28" t="n">
-        <v>771.9803829451869</v>
+        <v>771.9803829451857</v>
       </c>
       <c r="X28" t="n">
-        <v>643.1233239035145</v>
+        <v>643.1233239035134</v>
       </c>
       <c r="Y28" t="n">
-        <v>523.4835701587434</v>
+        <v>523.4835701587425</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1808.955690151403</v>
+        <v>1808.9556901514</v>
       </c>
       <c r="C29" t="n">
-        <v>1529.417336547162</v>
+        <v>1529.417336547159</v>
       </c>
       <c r="D29" t="n">
-        <v>1258.988776837337</v>
+        <v>1258.988776837335</v>
       </c>
       <c r="E29" t="n">
-        <v>966.5984620063959</v>
+        <v>966.5984620063941</v>
       </c>
       <c r="F29" t="n">
-        <v>654.8426763795178</v>
+        <v>654.8426763795164</v>
       </c>
       <c r="G29" t="n">
-        <v>341.7344581784716</v>
+        <v>341.7344581784711</v>
       </c>
       <c r="H29" t="n">
         <v>117.4570592986184</v>
       </c>
       <c r="I29" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="J29" t="n">
-        <v>247.8996690285886</v>
+        <v>292.478128703973</v>
       </c>
       <c r="K29" t="n">
-        <v>562.8887695124162</v>
+        <v>707.8249656899997</v>
       </c>
       <c r="L29" t="n">
-        <v>1103.988345305507</v>
+        <v>1248.924541483091</v>
       </c>
       <c r="M29" t="n">
-        <v>1700.905958240505</v>
+        <v>1801.263694742703</v>
       </c>
       <c r="N29" t="n">
-        <v>2284.587600719316</v>
+        <v>2284.587600719314</v>
       </c>
       <c r="O29" t="n">
-        <v>2789.091406861131</v>
+        <v>2789.09140686113</v>
       </c>
       <c r="P29" t="n">
-        <v>3202.221003689908</v>
+        <v>3202.221003689906</v>
       </c>
       <c r="Q29" t="n">
-        <v>3460.553307868773</v>
+        <v>3460.553307868771</v>
       </c>
       <c r="R29" t="n">
-        <v>3509.03854962653</v>
+        <v>3509.038549626528</v>
       </c>
       <c r="S29" t="n">
-        <v>3437.88575760419</v>
+        <v>3437.885757604188</v>
       </c>
       <c r="T29" t="n">
-        <v>3318.550306664297</v>
+        <v>3318.550306664296</v>
       </c>
       <c r="U29" t="n">
-        <v>3166.108404503788</v>
+        <v>3166.108404503787</v>
       </c>
       <c r="V29" t="n">
-        <v>2931.524535462681</v>
+        <v>2931.52453546268</v>
       </c>
       <c r="W29" t="n">
-        <v>2671.385010383234</v>
+        <v>2671.385010383233</v>
       </c>
       <c r="X29" t="n">
-        <v>2391.75027496768</v>
+        <v>2391.750274967678</v>
       </c>
       <c r="Y29" t="n">
-        <v>2100.60382460647</v>
+        <v>2100.603824606467</v>
       </c>
     </row>
     <row r="30">
@@ -6528,28 +6528,28 @@
         <v>487.4400139892856</v>
       </c>
       <c r="F30" t="n">
-        <v>352.74621593916</v>
+        <v>352.7462159391599</v>
       </c>
       <c r="G30" t="n">
-        <v>224.3389386372382</v>
+        <v>224.3389386372381</v>
       </c>
       <c r="H30" t="n">
         <v>127.50341596418</v>
       </c>
       <c r="I30" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1794808183511</v>
+        <v>160.179480818351</v>
       </c>
       <c r="K30" t="n">
         <v>440.5082296901252</v>
       </c>
       <c r="L30" t="n">
-        <v>874.688303624264</v>
+        <v>874.6883036242639</v>
       </c>
       <c r="M30" t="n">
-        <v>1439.492485852754</v>
+        <v>1439.492485852753</v>
       </c>
       <c r="N30" t="n">
         <v>1519.836543086607</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>442.3236065373155</v>
+        <v>442.3236065373154</v>
       </c>
       <c r="C31" t="n">
-        <v>375.1030420619476</v>
+        <v>375.1030420619475</v>
       </c>
       <c r="D31" t="n">
-        <v>324.4265539526622</v>
+        <v>324.4265539526621</v>
       </c>
       <c r="E31" t="n">
-        <v>274.8129447769329</v>
+        <v>274.8129447769327</v>
       </c>
       <c r="F31" t="n">
-        <v>224.7276948656618</v>
+        <v>224.7276948656617</v>
       </c>
       <c r="G31" t="n">
-        <v>158.4726535964417</v>
+        <v>158.4726535964415</v>
       </c>
       <c r="H31" t="n">
         <v>103.8897557057442</v>
       </c>
       <c r="I31" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="J31" t="n">
         <v>130.3371910802957</v>
       </c>
       <c r="K31" t="n">
-        <v>294.9645143651711</v>
+        <v>294.9645143651709</v>
       </c>
       <c r="L31" t="n">
         <v>535.1704833089433</v>
@@ -6661,10 +6661,10 @@
         <v>771.980382945187</v>
       </c>
       <c r="X31" t="n">
-        <v>643.1233239035146</v>
+        <v>643.1233239035145</v>
       </c>
       <c r="Y31" t="n">
-        <v>523.4835701587435</v>
+        <v>523.4835701587434</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1808.955690151402</v>
+        <v>1808.955690151401</v>
       </c>
       <c r="C32" t="n">
-        <v>1529.417336547161</v>
+        <v>1529.41733654716</v>
       </c>
       <c r="D32" t="n">
-        <v>1258.988776837336</v>
+        <v>1258.988776837335</v>
       </c>
       <c r="E32" t="n">
-        <v>966.598462006395</v>
+        <v>966.5984620063941</v>
       </c>
       <c r="F32" t="n">
-        <v>654.8426763795172</v>
+        <v>654.842676379517</v>
       </c>
       <c r="G32" t="n">
-        <v>341.7344581784719</v>
+        <v>341.7344581784718</v>
       </c>
       <c r="H32" t="n">
-        <v>117.4570592986184</v>
+        <v>117.4570592986183</v>
       </c>
       <c r="I32" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="J32" t="n">
-        <v>292.478128703973</v>
+        <v>292.4781287039731</v>
       </c>
       <c r="K32" t="n">
-        <v>707.8249656899998</v>
+        <v>707.82496569</v>
       </c>
       <c r="L32" t="n">
         <v>1248.924541483091</v>
       </c>
       <c r="M32" t="n">
-        <v>1845.842154418089</v>
+        <v>1845.84215441809</v>
       </c>
       <c r="N32" t="n">
-        <v>2429.5237968969</v>
+        <v>2329.166060394701</v>
       </c>
       <c r="O32" t="n">
-        <v>2934.027603038715</v>
+        <v>2833.669866536517</v>
       </c>
       <c r="P32" t="n">
-        <v>3347.157199867491</v>
+        <v>3202.221003689906</v>
       </c>
       <c r="Q32" t="n">
-        <v>3509.03854962653</v>
+        <v>3460.553307868771</v>
       </c>
       <c r="R32" t="n">
-        <v>3509.03854962653</v>
+        <v>3509.038549626528</v>
       </c>
       <c r="S32" t="n">
-        <v>3437.88575760419</v>
+        <v>3437.885757604188</v>
       </c>
       <c r="T32" t="n">
-        <v>3318.550306664297</v>
+        <v>3318.550306664296</v>
       </c>
       <c r="U32" t="n">
-        <v>3166.108404503788</v>
+        <v>3166.108404503786</v>
       </c>
       <c r="V32" t="n">
-        <v>2931.524535462681</v>
+        <v>2931.52453546268</v>
       </c>
       <c r="W32" t="n">
-        <v>2671.385010383235</v>
+        <v>2671.385010383232</v>
       </c>
       <c r="X32" t="n">
-        <v>2391.75027496768</v>
+        <v>2391.750274967678</v>
       </c>
       <c r="Y32" t="n">
-        <v>2100.603824606469</v>
+        <v>2100.603824606468</v>
       </c>
     </row>
     <row r="33">
@@ -6765,16 +6765,16 @@
         <v>487.4400139892856</v>
       </c>
       <c r="F33" t="n">
-        <v>352.74621593916</v>
+        <v>352.7462159391599</v>
       </c>
       <c r="G33" t="n">
-        <v>224.3389386372382</v>
+        <v>224.3389386372381</v>
       </c>
       <c r="H33" t="n">
         <v>127.50341596418</v>
       </c>
       <c r="I33" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="J33" t="n">
         <v>160.179480818351</v>
@@ -6783,16 +6783,16 @@
         <v>440.5082296901252</v>
       </c>
       <c r="L33" t="n">
-        <v>874.6883036242639</v>
+        <v>724.0992960943255</v>
       </c>
       <c r="M33" t="n">
-        <v>1439.492485852753</v>
+        <v>1288.903478322815</v>
       </c>
       <c r="N33" t="n">
-        <v>1519.836543086607</v>
+        <v>1882.051249634864</v>
       </c>
       <c r="O33" t="n">
-        <v>1986.942641447002</v>
+        <v>2349.157347995259</v>
       </c>
       <c r="P33" t="n">
         <v>2349.157347995259</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>442.3236065373154</v>
+        <v>442.3236065373144</v>
       </c>
       <c r="C34" t="n">
-        <v>375.1030420619476</v>
+        <v>375.1030420619467</v>
       </c>
       <c r="D34" t="n">
-        <v>324.4265539526622</v>
+        <v>324.4265539526614</v>
       </c>
       <c r="E34" t="n">
-        <v>274.8129447769329</v>
+        <v>274.8129447769322</v>
       </c>
       <c r="F34" t="n">
-        <v>224.7276948656618</v>
+        <v>224.7276948656612</v>
       </c>
       <c r="G34" t="n">
-        <v>158.4726535964417</v>
+        <v>158.4726535964412</v>
       </c>
       <c r="H34" t="n">
-        <v>103.8897557057444</v>
+        <v>103.889755705744</v>
       </c>
       <c r="I34" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="J34" t="n">
-        <v>130.3371910802955</v>
+        <v>130.3371910802958</v>
       </c>
       <c r="K34" t="n">
-        <v>294.9645143651709</v>
+        <v>294.9645143651679</v>
       </c>
       <c r="L34" t="n">
-        <v>535.1704833089432</v>
+        <v>535.1704833089403</v>
       </c>
       <c r="M34" t="n">
-        <v>794.8960198051603</v>
+        <v>794.8960198051576</v>
       </c>
       <c r="N34" t="n">
-        <v>1054.066603691327</v>
+        <v>1054.066603691324</v>
       </c>
       <c r="O34" t="n">
-        <v>1290.195156035329</v>
+        <v>1290.195156035327</v>
       </c>
       <c r="P34" t="n">
-        <v>1485.444104653928</v>
+        <v>1485.444104653926</v>
       </c>
       <c r="Q34" t="n">
-        <v>1570.133035354824</v>
+        <v>1570.133035354822</v>
       </c>
       <c r="R34" t="n">
-        <v>1535.115469720255</v>
+        <v>1535.115469720253</v>
       </c>
       <c r="S34" t="n">
-        <v>1428.494316814692</v>
+        <v>1428.494316814691</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.861423975047</v>
+        <v>1298.861423975045</v>
       </c>
       <c r="U34" t="n">
-        <v>1114.081278743462</v>
+        <v>1114.08127874346</v>
       </c>
       <c r="V34" t="n">
-        <v>955.741379364836</v>
+        <v>955.7413793648344</v>
       </c>
       <c r="W34" t="n">
-        <v>771.980382945187</v>
+        <v>771.9803829451855</v>
       </c>
       <c r="X34" t="n">
-        <v>643.1233239035145</v>
+        <v>643.1233239035132</v>
       </c>
       <c r="Y34" t="n">
-        <v>523.4835701587434</v>
+        <v>523.4835701587423</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1350.057431477639</v>
+        <v>1350.05743147764</v>
       </c>
       <c r="C35" t="n">
-        <v>1135.85089689843</v>
+        <v>1135.850896898431</v>
       </c>
       <c r="D35" t="n">
-        <v>930.7541562136382</v>
+        <v>930.7541562136389</v>
       </c>
       <c r="E35" t="n">
-        <v>703.6956604077293</v>
+        <v>703.6956604077297</v>
       </c>
       <c r="F35" t="n">
-        <v>457.2716938058838</v>
+        <v>457.2716938058845</v>
       </c>
       <c r="G35" t="n">
         <v>209.495294629871</v>
@@ -6935,25 +6935,25 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J35" t="n">
-        <v>50.54971477505016</v>
+        <v>172.4893359842935</v>
       </c>
       <c r="K35" t="n">
-        <v>365.5388152588778</v>
+        <v>487.4784364681211</v>
       </c>
       <c r="L35" t="n">
-        <v>806.2806545497697</v>
+        <v>928.220275759013</v>
       </c>
       <c r="M35" t="n">
-        <v>1302.840530982569</v>
+        <v>1424.780152191812</v>
       </c>
       <c r="N35" t="n">
-        <v>1786.16443695918</v>
+        <v>1908.104058168423</v>
       </c>
       <c r="O35" t="n">
-        <v>2190.310506598797</v>
+        <v>2214.71387842593</v>
       </c>
       <c r="P35" t="n">
-        <v>2503.082366925374</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="Q35" t="n">
         <v>2527.485738752508</v>
@@ -6962,19 +6962,19 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S35" t="n">
-        <v>2521.6647657552</v>
+        <v>2521.664765755201</v>
       </c>
       <c r="T35" t="n">
-        <v>2467.66113384034</v>
+        <v>2467.661133840341</v>
       </c>
       <c r="U35" t="n">
-        <v>2380.551050704863</v>
+        <v>2380.551050704864</v>
       </c>
       <c r="V35" t="n">
         <v>2211.299000688789</v>
       </c>
       <c r="W35" t="n">
-        <v>2016.491294634374</v>
+        <v>2016.491294634375</v>
       </c>
       <c r="X35" t="n">
         <v>1802.188378243852</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.3792774837674</v>
+        <v>915.3792774837677</v>
       </c>
       <c r="C36" t="n">
-        <v>753.6756047247222</v>
+        <v>753.6756047247225</v>
       </c>
       <c r="D36" t="n">
-        <v>614.8369677149344</v>
+        <v>614.8369677149345</v>
       </c>
       <c r="E36" t="n">
-        <v>467.8089577718056</v>
+        <v>467.8089577718058</v>
       </c>
       <c r="F36" t="n">
-        <v>333.1151597216798</v>
+        <v>333.1151597216796</v>
       </c>
       <c r="G36" t="n">
-        <v>204.7078824197579</v>
+        <v>204.7078824197577</v>
       </c>
       <c r="H36" t="n">
         <v>107.8723597466996</v>
@@ -7014,31 +7014,31 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J36" t="n">
-        <v>50.54971477505016</v>
+        <v>140.5484246008706</v>
       </c>
       <c r="K36" t="n">
-        <v>106.0329063691799</v>
+        <v>420.8771734726448</v>
       </c>
       <c r="L36" t="n">
-        <v>540.2129803033187</v>
+        <v>855.0572474067835</v>
       </c>
       <c r="M36" t="n">
-        <v>1105.017162531808</v>
+        <v>1419.861429635273</v>
       </c>
       <c r="N36" t="n">
-        <v>1698.164933843857</v>
+        <v>1500.205486869127</v>
       </c>
       <c r="O36" t="n">
-        <v>2165.271032204252</v>
+        <v>1967.311585229522</v>
       </c>
       <c r="P36" t="n">
-        <v>2527.485738752508</v>
+        <v>2329.526291777779</v>
       </c>
       <c r="Q36" t="n">
         <v>2527.485738752508</v>
       </c>
       <c r="R36" t="n">
-        <v>2487.645453112272</v>
+        <v>2487.645453112273</v>
       </c>
       <c r="S36" t="n">
         <v>2340.812536422166</v>
@@ -7056,10 +7056,10 @@
         <v>1465.237034737655</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.320046615449</v>
+        <v>1267.32004661545</v>
       </c>
       <c r="Y36" t="n">
-        <v>1074.798720265028</v>
+        <v>1074.798720265029</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>221.0889065575577</v>
+        <v>233.3728983528079</v>
       </c>
       <c r="C37" t="n">
-        <v>219.2001611072222</v>
+        <v>231.4841529024724</v>
       </c>
       <c r="D37" t="n">
-        <v>219.2001611072222</v>
+        <v>231.4841529024724</v>
       </c>
       <c r="E37" t="n">
-        <v>219.2001611072222</v>
+        <v>79.4751386637912</v>
       </c>
       <c r="F37" t="n">
-        <v>219.2001611072222</v>
+        <v>79.4751386637912</v>
       </c>
       <c r="G37" t="n">
-        <v>50.54971477505016</v>
+        <v>78.55191641960342</v>
       </c>
       <c r="H37" t="n">
-        <v>50.54971477505016</v>
+        <v>78.55191641960342</v>
       </c>
       <c r="I37" t="n">
-        <v>50.54971477505016</v>
+        <v>78.55191641960342</v>
       </c>
       <c r="J37" t="n">
         <v>50.54971477505016</v>
@@ -7123,22 +7123,22 @@
         <v>762.2208754549582</v>
       </c>
       <c r="T37" t="n">
-        <v>685.6358098450952</v>
+        <v>697.9198016403454</v>
       </c>
       <c r="U37" t="n">
-        <v>566.1874836385417</v>
+        <v>578.471475433792</v>
       </c>
       <c r="V37" t="n">
-        <v>473.1794032849486</v>
+        <v>485.4633950801988</v>
       </c>
       <c r="W37" t="n">
-        <v>354.7502258903319</v>
+        <v>367.0342176855821</v>
       </c>
       <c r="X37" t="n">
-        <v>291.2249858736919</v>
+        <v>303.5089776689421</v>
       </c>
       <c r="Y37" t="n">
-        <v>236.9170511539533</v>
+        <v>249.2010429492034</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1135.850896898431</v>
       </c>
       <c r="D38" t="n">
-        <v>930.7541562136387</v>
+        <v>930.7541562136383</v>
       </c>
       <c r="E38" t="n">
-        <v>703.6956604077297</v>
+        <v>703.6956604077295</v>
       </c>
       <c r="F38" t="n">
-        <v>457.2716938058843</v>
+        <v>457.2716938058842</v>
       </c>
       <c r="G38" t="n">
         <v>209.495294629871</v>
@@ -7175,13 +7175,13 @@
         <v>50.54971477505016</v>
       </c>
       <c r="K38" t="n">
-        <v>231.9676194093453</v>
+        <v>365.5388152588778</v>
       </c>
       <c r="L38" t="n">
-        <v>672.7094587002373</v>
+        <v>806.2806545497697</v>
       </c>
       <c r="M38" t="n">
-        <v>1169.269335133036</v>
+        <v>1302.840530982569</v>
       </c>
       <c r="N38" t="n">
         <v>1652.593241109648</v>
@@ -7242,7 +7242,7 @@
         <v>333.1151597216798</v>
       </c>
       <c r="G39" t="n">
-        <v>204.7078824197579</v>
+        <v>204.7078824197581</v>
       </c>
       <c r="H39" t="n">
         <v>107.8723597466996</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>221.0889065575576</v>
+        <v>53.3616824695733</v>
       </c>
       <c r="C40" t="n">
-        <v>51.47293701923791</v>
+        <v>51.47293701923788</v>
       </c>
       <c r="D40" t="n">
-        <v>51.47293701923791</v>
+        <v>51.47293701923788</v>
       </c>
       <c r="E40" t="n">
-        <v>51.47293701923791</v>
+        <v>51.47293701923788</v>
       </c>
       <c r="F40" t="n">
-        <v>51.47293701923791</v>
+        <v>51.47293701923788</v>
       </c>
       <c r="G40" t="n">
         <v>50.54971477505016</v>
@@ -7351,31 +7351,31 @@
         <v>803.5102093354883</v>
       </c>
       <c r="Q40" t="n">
-        <v>803.5102093354883</v>
+        <v>791.2262175402377</v>
       </c>
       <c r="R40" t="n">
-        <v>803.5102093354883</v>
+        <v>791.2262175402377</v>
       </c>
       <c r="S40" t="n">
-        <v>762.2208754549582</v>
+        <v>749.9368836597076</v>
       </c>
       <c r="T40" t="n">
-        <v>697.9198016403454</v>
+        <v>517.9085857571106</v>
       </c>
       <c r="U40" t="n">
-        <v>578.471475433792</v>
+        <v>398.4602595505572</v>
       </c>
       <c r="V40" t="n">
-        <v>485.4633950801988</v>
+        <v>305.452179196964</v>
       </c>
       <c r="W40" t="n">
-        <v>367.0342176855822</v>
+        <v>187.0230018023474</v>
       </c>
       <c r="X40" t="n">
-        <v>303.5089776689422</v>
+        <v>123.4977617857075</v>
       </c>
       <c r="Y40" t="n">
-        <v>236.9170511539532</v>
+        <v>69.18982706596884</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>930.7541562136389</v>
       </c>
       <c r="E41" t="n">
-        <v>703.6956604077299</v>
+        <v>703.6956604077301</v>
       </c>
       <c r="F41" t="n">
-        <v>457.2716938058843</v>
+        <v>457.2716938058848</v>
       </c>
       <c r="G41" t="n">
         <v>209.495294629871</v>
@@ -7409,16 +7409,16 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J41" t="n">
-        <v>172.4893359842935</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K41" t="n">
-        <v>231.9676194093453</v>
+        <v>365.5388152588778</v>
       </c>
       <c r="L41" t="n">
-        <v>672.7094587002373</v>
+        <v>806.2806545497697</v>
       </c>
       <c r="M41" t="n">
-        <v>1169.269335133036</v>
+        <v>1302.840530982569</v>
       </c>
       <c r="N41" t="n">
         <v>1652.593241109648</v>
@@ -7500,25 +7500,25 @@
         <v>1419.861429635273</v>
       </c>
       <c r="N42" t="n">
-        <v>1500.205486869127</v>
+        <v>1698.164933843857</v>
       </c>
       <c r="O42" t="n">
-        <v>1967.311585229522</v>
+        <v>2165.271032204252</v>
       </c>
       <c r="P42" t="n">
-        <v>2329.526291777779</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="Q42" t="n">
         <v>2527.485738752508</v>
       </c>
       <c r="R42" t="n">
-        <v>2487.645453112272</v>
+        <v>2487.645453112273</v>
       </c>
       <c r="S42" t="n">
         <v>2340.812536422166</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.42218538699</v>
+        <v>2153.422185386991</v>
       </c>
       <c r="U42" t="n">
         <v>1934.948526056011</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.3616824695733</v>
+        <v>233.3728983528082</v>
       </c>
       <c r="C43" t="n">
-        <v>51.47293701923788</v>
+        <v>231.4841529024728</v>
       </c>
       <c r="D43" t="n">
-        <v>51.47293701923788</v>
+        <v>78.41225973023555</v>
       </c>
       <c r="E43" t="n">
         <v>51.47293701923788</v>
@@ -7588,31 +7588,31 @@
         <v>803.5102093354883</v>
       </c>
       <c r="Q43" t="n">
-        <v>787.5232633082428</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="R43" t="n">
-        <v>787.5232633082428</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="S43" t="n">
-        <v>582.2096595717234</v>
+        <v>762.2208754549582</v>
       </c>
       <c r="T43" t="n">
-        <v>517.9085857571106</v>
+        <v>697.9198016403454</v>
       </c>
       <c r="U43" t="n">
-        <v>398.4602595505572</v>
+        <v>578.4714754337921</v>
       </c>
       <c r="V43" t="n">
-        <v>305.452179196964</v>
+        <v>485.4633950801989</v>
       </c>
       <c r="W43" t="n">
-        <v>187.0230018023474</v>
+        <v>367.0342176855823</v>
       </c>
       <c r="X43" t="n">
-        <v>123.4977617857075</v>
+        <v>303.5089776689424</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.18982706596884</v>
+        <v>249.2010429492038</v>
       </c>
     </row>
     <row r="44">
@@ -7625,13 +7625,13 @@
         <v>1350.05743147764</v>
       </c>
       <c r="C44" t="n">
-        <v>1135.850896898432</v>
+        <v>1135.850896898431</v>
       </c>
       <c r="D44" t="n">
-        <v>930.7541562136394</v>
+        <v>930.7541562136389</v>
       </c>
       <c r="E44" t="n">
-        <v>703.6956604077302</v>
+        <v>703.6956604077297</v>
       </c>
       <c r="F44" t="n">
         <v>457.2716938058848</v>
@@ -7646,13 +7646,13 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J44" t="n">
-        <v>172.4893359842935</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K44" t="n">
-        <v>487.4784364681211</v>
+        <v>231.9676194093453</v>
       </c>
       <c r="L44" t="n">
-        <v>928.220275759013</v>
+        <v>672.7094587002373</v>
       </c>
       <c r="M44" t="n">
         <v>1169.269335133036</v>
@@ -7676,19 +7676,19 @@
         <v>2521.664765755201</v>
       </c>
       <c r="T44" t="n">
-        <v>2467.66113384034</v>
+        <v>2467.661133840341</v>
       </c>
       <c r="U44" t="n">
         <v>2380.551050704864</v>
       </c>
       <c r="V44" t="n">
-        <v>2211.29900068879</v>
+        <v>2211.299000688789</v>
       </c>
       <c r="W44" t="n">
         <v>2016.491294634375</v>
       </c>
       <c r="X44" t="n">
-        <v>1802.188378243853</v>
+        <v>1802.188378243852</v>
       </c>
       <c r="Y44" t="n">
         <v>1576.373746907675</v>
@@ -7737,13 +7737,13 @@
         <v>1419.861429635273</v>
       </c>
       <c r="N45" t="n">
-        <v>1500.205486869127</v>
+        <v>1698.164933843856</v>
       </c>
       <c r="O45" t="n">
-        <v>1967.311585229522</v>
+        <v>2165.271032204251</v>
       </c>
       <c r="P45" t="n">
-        <v>2329.526291777778</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="Q45" t="n">
         <v>2527.485738752508</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>217.3859523255624</v>
+        <v>53.36168246957342</v>
       </c>
       <c r="C46" t="n">
-        <v>215.4972068752269</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="D46" t="n">
-        <v>215.4972068752269</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="E46" t="n">
-        <v>203.9535919934608</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="F46" t="n">
         <v>51.47293701923794</v>
@@ -7825,31 +7825,31 @@
         <v>803.5102093354883</v>
       </c>
       <c r="Q46" t="n">
-        <v>787.5232633082428</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="R46" t="n">
-        <v>787.5232633082428</v>
+        <v>791.2262175402383</v>
       </c>
       <c r="S46" t="n">
-        <v>746.2339294277127</v>
+        <v>749.9368836597082</v>
       </c>
       <c r="T46" t="n">
-        <v>681.9328556130999</v>
+        <v>685.6358098450953</v>
       </c>
       <c r="U46" t="n">
-        <v>562.4845294065465</v>
+        <v>398.4602595505576</v>
       </c>
       <c r="V46" t="n">
-        <v>469.4764490529533</v>
+        <v>305.4521791969644</v>
       </c>
       <c r="W46" t="n">
-        <v>351.0472716583366</v>
+        <v>187.0230018023477</v>
       </c>
       <c r="X46" t="n">
-        <v>287.5220316416966</v>
+        <v>123.4977617857077</v>
       </c>
       <c r="Y46" t="n">
-        <v>233.2140969219579</v>
+        <v>69.18982706596901</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>96.65426516890469</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8699,13 +8699,13 @@
         <v>82.79196078027915</v>
       </c>
       <c r="N11" t="n">
-        <v>379.7581334218822</v>
+        <v>531.6378514309383</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>143.2872680590503</v>
       </c>
       <c r="Q11" t="n">
         <v>116.4392174774051</v>
@@ -8766,28 +8766,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>73.01055823968255</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>140.5568610282031</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>34.9073078967277</v>
+        <v>486.2001232250275</v>
       </c>
       <c r="N12" t="n">
-        <v>432.476782222576</v>
+        <v>24.00592370515631</v>
       </c>
       <c r="O12" t="n">
-        <v>40.19667328157168</v>
+        <v>491.4894886098714</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8933,19 +8933,19 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>534.0847761085864</v>
+        <v>534.0847761085789</v>
       </c>
       <c r="N14" t="n">
         <v>80.3450361026385</v>
       </c>
       <c r="O14" t="n">
-        <v>343.1605176325053</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229274</v>
+        <v>106.8883322333705</v>
       </c>
       <c r="Q14" t="n">
-        <v>116.4392174774051</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9006,19 +9006,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>60.64445572062075</v>
       </c>
       <c r="L15" t="n">
-        <v>482.0924488944969</v>
+        <v>271.1380291510191</v>
       </c>
       <c r="M15" t="n">
-        <v>34.9073078967277</v>
+        <v>486.2001232250275</v>
       </c>
       <c r="N15" t="n">
-        <v>432.476782222576</v>
+        <v>24.00592370515631</v>
       </c>
       <c r="O15" t="n">
-        <v>40.19667328157168</v>
+        <v>491.4894886098714</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>96.65426516890469</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9173,13 +9173,13 @@
         <v>82.79196078027915</v>
       </c>
       <c r="N17" t="n">
-        <v>531.6378514309457</v>
+        <v>531.6378514309383</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>266.4586026138638</v>
+        <v>143.2872680590503</v>
       </c>
       <c r="Q17" t="n">
         <v>116.4392174774051</v>
@@ -9243,7 +9243,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>60.64445572062075</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,10 +9252,10 @@
         <v>34.9073078967277</v>
       </c>
       <c r="N18" t="n">
-        <v>24.00592370515631</v>
+        <v>264.3443192899782</v>
       </c>
       <c r="O18" t="n">
-        <v>448.6675317989914</v>
+        <v>491.4894886098714</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>96.65426516890469</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>255.7182176252622</v>
+        <v>97.76580185407853</v>
       </c>
       <c r="M20" t="n">
-        <v>534.0847761085864</v>
+        <v>534.0847761085789</v>
       </c>
       <c r="N20" t="n">
-        <v>531.6378514309457</v>
+        <v>90.91749021979751</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>102.4071485758795</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.4392174774051</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9480,7 +9480,7 @@
         <v>73.01055823968255</v>
       </c>
       <c r="K21" t="n">
-        <v>60.64445572062075</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,16 +9489,16 @@
         <v>34.9073078967277</v>
       </c>
       <c r="N21" t="n">
-        <v>355.2521069928492</v>
+        <v>272.050791945307</v>
       </c>
       <c r="O21" t="n">
-        <v>491.4894886098789</v>
+        <v>491.4894886098714</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>96.65426516890469</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9644,19 +9644,19 @@
         <v>97.76580185407853</v>
       </c>
       <c r="M23" t="n">
-        <v>534.0847761085865</v>
+        <v>534.0847761085789</v>
       </c>
       <c r="N23" t="n">
-        <v>214.0888247746113</v>
+        <v>531.6378514309383</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>102.4071485758795</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>151.2202986937831</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9723,19 +9723,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>34.9073078967277</v>
+        <v>192.0443884340294</v>
       </c>
       <c r="N24" t="n">
         <v>24.00592370515631</v>
       </c>
       <c r="O24" t="n">
-        <v>448.6675317989921</v>
+        <v>491.4894886098714</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>105.1615370726852</v>
+        <v>105.1615370726854</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10431,19 +10431,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>329.9823402783975</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>105.1615370726854</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>48.12815827408364</v>
       </c>
       <c r="Q33" t="n">
         <v>273.1004740566038</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>96.65426516890469</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10598,13 +10598,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>396.5187716192363</v>
       </c>
       <c r="P35" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>141.0890880098636</v>
+        <v>116.4392174774051</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>73.01055823968255</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>116.6880835934791</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>105.1615370726859</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.14143670839249</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10823,7 +10823,7 @@
         <v>96.65426516890469</v>
       </c>
       <c r="K38" t="n">
-        <v>286.4686364945016</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
@@ -10832,7 +10832,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
-        <v>568.5510017355793</v>
+        <v>433.6306018875669</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>96.65426516890469</v>
       </c>
       <c r="K41" t="n">
-        <v>163.2973019397104</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11069,7 +11069,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
-        <v>568.5510017355793</v>
+        <v>433.6306018875669</v>
       </c>
       <c r="O41" t="n">
         <v>495.0402356415689</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>105.1615370726859</v>
+        <v>305.1205744208974</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>96.65426516890469</v>
       </c>
       <c r="K44" t="n">
-        <v>421.3890363425141</v>
+        <v>286.4686364945016</v>
       </c>
       <c r="L44" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>326.2758591378784</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>105.1615370726854</v>
+        <v>305.120574420897</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>260.8850331288904</v>
+        <v>128.6393365059906</v>
       </c>
       <c r="C11" t="n">
-        <v>248.8963500865722</v>
+        <v>248.8963500865703</v>
       </c>
       <c r="D11" t="n">
-        <v>239.8776541311001</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>282.1305160374068</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>194.1880049094267</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>18.95690544139891</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>42.59464412048845</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>90.29547644886583</v>
       </c>
       <c r="U11" t="n">
-        <v>32.35052760176628</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>204.3914103690695</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>229.6915098470246</v>
       </c>
       <c r="X11" t="n">
-        <v>248.9917680797731</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>248.8963500865702</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>261.6197917010057</v>
+        <v>261.6197917010037</v>
       </c>
       <c r="F14" t="n">
-        <v>280.7916077889828</v>
+        <v>280.7916077889809</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>18.95690544140075</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57344135275768</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.0708631572776</v>
+        <v>123.0708631572756</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>60.62576478736932</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>248.9917680797731</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>260.3883658759718</v>
+        <v>260.3883658759698</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1122320.945828065</v>
+        <v>1122320.945828063</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1122320.945828065</v>
+        <v>1122320.945828063</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1264909.976270966</v>
+        <v>1264909.976270964</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1264909.976270966</v>
+        <v>1264909.976270964</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1264909.976270966</v>
+        <v>1264909.976270964</v>
       </c>
     </row>
     <row r="10">
@@ -26317,13 +26317,13 @@
         <v>229762.9894521913</v>
       </c>
       <c r="D2" t="n">
-        <v>229762.9894521912</v>
+        <v>229762.9894521913</v>
       </c>
       <c r="E2" t="n">
-        <v>200786.0394359301</v>
+        <v>200786.0394359297</v>
       </c>
       <c r="F2" t="n">
-        <v>200786.0394359301</v>
+        <v>200786.0394359299</v>
       </c>
       <c r="G2" t="n">
         <v>230287.2181482545</v>
@@ -26335,25 +26335,25 @@
         <v>230287.2181482545</v>
       </c>
       <c r="J2" t="n">
-        <v>230287.2181482545</v>
+        <v>230287.2181482544</v>
       </c>
       <c r="K2" t="n">
         <v>230287.2181482548</v>
       </c>
       <c r="L2" t="n">
-        <v>230287.2181482549</v>
+        <v>230287.2181482544</v>
       </c>
       <c r="M2" t="n">
-        <v>230287.2181482547</v>
+        <v>230287.2181482548</v>
       </c>
       <c r="N2" t="n">
         <v>230287.2181482547</v>
       </c>
       <c r="O2" t="n">
-        <v>230287.2181482546</v>
+        <v>230287.2181482548</v>
       </c>
       <c r="P2" t="n">
-        <v>230287.2181482547</v>
+        <v>230287.2181482545</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356901.2563746109</v>
+        <v>356901.2563746102</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.474940550646611e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>72236.38115909419</v>
+        <v>72236.38115909429</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120312.442846625</v>
+        <v>120312.4428466266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>72236.38115909419</v>
+        <v>72236.38115909441</v>
       </c>
       <c r="M3" t="n">
-        <v>103055.0537486386</v>
+        <v>103055.0537486369</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>8860.779650763743</v>
+        <v>8860.779650763414</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,31 +26424,31 @@
         <v>415219.1534460828</v>
       </c>
       <c r="E4" t="n">
-        <v>292825.0084179229</v>
+        <v>292825.0084179234</v>
       </c>
       <c r="F4" t="n">
-        <v>292825.008417923</v>
+        <v>292825.0084179234</v>
       </c>
       <c r="G4" t="n">
-        <v>348860.1176001111</v>
+        <v>348860.1176001114</v>
       </c>
       <c r="H4" t="n">
-        <v>348860.117600111</v>
+        <v>348860.1176001114</v>
       </c>
       <c r="I4" t="n">
-        <v>348860.1176001111</v>
+        <v>348860.1176001113</v>
       </c>
       <c r="J4" t="n">
         <v>338193.2769757742</v>
       </c>
       <c r="K4" t="n">
-        <v>338193.2769757742</v>
+        <v>338193.2769757741</v>
       </c>
       <c r="L4" t="n">
         <v>338193.2769757742</v>
       </c>
       <c r="M4" t="n">
-        <v>339446.9901772323</v>
+        <v>339446.9901772322</v>
       </c>
       <c r="N4" t="n">
         <v>339446.9901772323</v>
@@ -26476,28 +26476,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>41524.90096894783</v>
+        <v>41524.90096894753</v>
       </c>
       <c r="F5" t="n">
-        <v>41524.90096894783</v>
+        <v>41524.90096894754</v>
       </c>
       <c r="G5" t="n">
-        <v>49115.95137852769</v>
+        <v>49115.95137852742</v>
       </c>
       <c r="H5" t="n">
-        <v>49115.95137852768</v>
+        <v>49115.95137852742</v>
       </c>
       <c r="I5" t="n">
-        <v>49115.95137852769</v>
+        <v>49115.95137852742</v>
       </c>
       <c r="J5" t="n">
-        <v>65082.64625607467</v>
+        <v>65082.64625607464</v>
       </c>
       <c r="K5" t="n">
-        <v>65082.64625607467</v>
+        <v>65082.64625607464</v>
       </c>
       <c r="L5" t="n">
-        <v>65082.64625607467</v>
+        <v>65082.64625607465</v>
       </c>
       <c r="M5" t="n">
         <v>55600.50041746882</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219083.7639938915</v>
+        <v>-219088.1325663587</v>
       </c>
       <c r="C6" t="n">
-        <v>-219083.7639938915</v>
+        <v>-219088.1325663587</v>
       </c>
       <c r="D6" t="n">
-        <v>-219083.7639938916</v>
+        <v>-219088.1325663587</v>
       </c>
       <c r="E6" t="n">
-        <v>-490465.1263255515</v>
+        <v>-490710.9694814874</v>
       </c>
       <c r="F6" t="n">
-        <v>-133563.8699509407</v>
+        <v>-133809.7131068771</v>
       </c>
       <c r="G6" t="n">
-        <v>-239925.2319894785</v>
+        <v>-239925.2319894786</v>
       </c>
       <c r="H6" t="n">
-        <v>-167688.8508303841</v>
+        <v>-167688.8508303844</v>
       </c>
       <c r="I6" t="n">
-        <v>-167688.8508303842</v>
+        <v>-167688.8508303843</v>
       </c>
       <c r="J6" t="n">
-        <v>-293301.1479302194</v>
+        <v>-293301.147930221</v>
       </c>
       <c r="K6" t="n">
         <v>-172988.705083594</v>
       </c>
       <c r="L6" t="n">
-        <v>-245225.0862426882</v>
+        <v>-245225.0862426889</v>
       </c>
       <c r="M6" t="n">
-        <v>-267815.326195085</v>
+        <v>-267815.3261950833</v>
       </c>
       <c r="N6" t="n">
         <v>-164760.2724464465</v>
       </c>
       <c r="O6" t="n">
-        <v>-173621.0520972103</v>
+        <v>-173621.0520972098</v>
       </c>
       <c r="P6" t="n">
-        <v>-164760.2724464464</v>
+        <v>-164760.2724464466</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="G2" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="H2" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="I2" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="J2" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="K2" t="n">
         <v>101.3714510123223</v>
       </c>
       <c r="L2" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="M2" t="n">
         <v>166.0499518471044</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="F4" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="G4" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="H4" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="I4" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="J4" t="n">
-        <v>877.2596374066325</v>
+        <v>877.259637406632</v>
       </c>
       <c r="K4" t="n">
-        <v>877.2596374066325</v>
+        <v>877.259637406632</v>
       </c>
       <c r="L4" t="n">
-        <v>877.2596374066325</v>
+        <v>877.259637406632</v>
       </c>
       <c r="M4" t="n">
         <v>631.871434688127</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.843675688308264e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>90.29547644886773</v>
+        <v>90.29547644886787</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.07597456345466</v>
+        <v>11.07597456345427</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>90.29547644886775</v>
+        <v>90.29547644886802</v>
       </c>
       <c r="M2" t="n">
-        <v>64.67850083478197</v>
+        <v>64.67850083478204</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345468</v>
+        <v>11.07597456345427</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>425.966822078325</v>
+        <v>425.9668220783322</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>205.9046126098019</v>
+        <v>205.9046126097948</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.843675688308264e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>90.29547644886773</v>
+        <v>90.29547644886787</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345466</v>
+        <v>11.07597456345427</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="C11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="D11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="E11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="F11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="G11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="H11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="I11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>52.39645933782047</v>
       </c>
       <c r="S11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="T11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="V11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="W11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="X11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="Y11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
     </row>
     <row r="12">
@@ -28166,13 +28166,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>87.72592073004949</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28181,10 +28181,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04459898495835546</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>56.7494185219329</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.44188278383303</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28226,16 +28226,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
     </row>
     <row r="13">
@@ -28245,34 +28245,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="C13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="D13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="E13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="F13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="G13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="H13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="I13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="J13" t="n">
-        <v>82.11608293619963</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>129.2180709939485</v>
+        <v>57.33576918552924</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28290,31 +28290,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.82707656697309</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="R13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="S13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="T13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="U13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="V13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="W13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="X13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939504</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="C14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="D14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="E14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="F14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="G14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="H14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="I14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>52.39645933782047</v>
       </c>
       <c r="S14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="T14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="V14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="W14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="X14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="Y14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="C15" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="E15" t="n">
-        <v>129.2180709939485</v>
+        <v>15.25726825803105</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.04459898495824177</v>
+        <v>39.44188278383303</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28469,10 +28469,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>129.2180709939505</v>
       </c>
     </row>
     <row r="16">
@@ -28482,28 +28482,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="C16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="D16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="E16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="F16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="G16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="H16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="I16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="J16" t="n">
         <v>40.60739031761008</v>
@@ -28512,46 +28512,46 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>41.50869261858952</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="N16" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>57.33576918552609</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.82707656697309</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="R16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="S16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="T16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="U16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="V16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="W16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="X16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939505</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="C17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="D17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="E17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="F17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="G17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="H17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="I17" t="n">
         <v>148.1749764353493</v>
@@ -28615,22 +28615,22 @@
         <v>171.8127151144388</v>
       </c>
       <c r="T17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="U17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="V17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="W17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="X17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="Y17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>39.03090604788949</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28649,19 +28649,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>127.1232045289026</v>
       </c>
       <c r="H18" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,13 +28691,13 @@
         <v>39.44188278383303</v>
       </c>
       <c r="S18" t="n">
-        <v>145.364587523205</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>185.5164475248238</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>50.72679768256324</v>
+        <v>216.2889227376699</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>166.9639418688503</v>
       </c>
       <c r="H19" t="n">
-        <v>155.4085199241127</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>134.7433458784038</v>
@@ -28770,25 +28770,25 @@
         <v>136.0388409905457</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>23.52563074733979</v>
       </c>
       <c r="T19" t="n">
-        <v>87.63065826605407</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="V19" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="W19" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="X19" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428184</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="C20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="D20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="E20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="F20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="G20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="H20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="I20" t="n">
         <v>148.1749764353493</v>
@@ -28852,22 +28852,22 @@
         <v>171.8127151144388</v>
       </c>
       <c r="T20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="U20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="V20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="W20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="X20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="Y20" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
     </row>
     <row r="21">
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,22 +28928,22 @@
         <v>39.44188278383303</v>
       </c>
       <c r="S21" t="n">
-        <v>26.38271010113897</v>
+        <v>72.44500520930534</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="W21" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28959,13 +28959,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -28974,13 +28974,13 @@
         <v>166.9639418688503</v>
       </c>
       <c r="H22" t="n">
-        <v>155.4085199241127</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>134.7433458784038</v>
       </c>
       <c r="J22" t="n">
-        <v>40.60739031761008</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>136.0388409905457</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>206.9263923888292</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="U22" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="V22" t="n">
-        <v>219.5135474428162</v>
+        <v>215.9989386224681</v>
       </c>
       <c r="W22" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="X22" t="n">
-        <v>131.1406266141549</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="C23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="D23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="E23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="F23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="G23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="H23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="I23" t="n">
         <v>148.1749764353493</v>
@@ -29086,25 +29086,25 @@
         <v>52.39645933782047</v>
       </c>
       <c r="S23" t="n">
-        <v>171.8127151144388</v>
+        <v>171.8127151144365</v>
       </c>
       <c r="T23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="U23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="V23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="W23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="X23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="Y23" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
     </row>
     <row r="24">
@@ -29123,19 +29123,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1232045289026</v>
+        <v>76.95594081894167</v>
       </c>
       <c r="H24" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,22 +29162,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.44188278383303</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T24" t="n">
-        <v>142.1451256011023</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29202,13 +29202,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9639418688503</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>155.4085199241127</v>
@@ -29247,22 +29247,22 @@
         <v>206.9263923888292</v>
       </c>
       <c r="T25" t="n">
-        <v>31.66011430170593</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="U25" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="W25" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
       <c r="X25" t="n">
-        <v>219.5135474428162</v>
+        <v>129.5994328240226</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428185</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="C26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="D26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="E26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="F26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="G26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="H26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="I26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="J26" t="n">
-        <v>56.34270386546956</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="K26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="L26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="M26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="N26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="O26" t="n">
-        <v>101.3714510123223</v>
+        <v>56.3427038654666</v>
       </c>
       <c r="P26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="S26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="T26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="U26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="V26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="W26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="X26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="Y26" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="C28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="D28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="E28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="F28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="G28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="H28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="I28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="J28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123201</v>
       </c>
       <c r="K28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="L28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="M28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="N28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="O28" t="n">
-        <v>101.3714510123226</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="P28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="Q28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="R28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="S28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="T28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="U28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="V28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="W28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="X28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="Y28" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
     </row>
     <row r="29">
@@ -29533,19 +29533,19 @@
         <v>101.3714510123223</v>
       </c>
       <c r="J29" t="n">
-        <v>56.34270386546933</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="L29" t="n">
         <v>101.3714510123223</v>
       </c>
       <c r="M29" t="n">
-        <v>101.3714510123223</v>
+        <v>56.34270386546757</v>
       </c>
       <c r="N29" t="n">
-        <v>101.3714510123223</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>101.3714510123223</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="C32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="D32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="E32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="F32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="G32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="H32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="I32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="J32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="K32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="L32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="M32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="N32" t="n">
-        <v>101.3714510123223</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="P32" t="n">
-        <v>101.3714510123223</v>
+        <v>56.34270386546621</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.946244527648815</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="R32" t="n">
-        <v>52.39645933782047</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="S32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="T32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="U32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="V32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="W32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="X32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="Y32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="C34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="D34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="E34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="F34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="G34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="H34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="I34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="J34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.371451012319</v>
       </c>
       <c r="L34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="M34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="N34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="O34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="P34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="R34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="S34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="T34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="U34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="V34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="W34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="X34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="Y34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
     </row>
     <row r="35">
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30150,13 +30150,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H37" t="n">
         <v>155.4085199241127</v>
@@ -30165,7 +30165,7 @@
         <v>134.7433458784038</v>
       </c>
       <c r="J37" t="n">
-        <v>40.60739031761008</v>
+        <v>12.88521068950237</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30195,7 +30195,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8887999698067</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="U37" t="n">
         <v>166.0499518471044</v>
@@ -30381,7 +30381,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.82707656697309</v>
+        <v>3.665924689675014</v>
       </c>
       <c r="R40" t="n">
         <v>136.0388409905457</v>
@@ -30432,7 +30432,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="T40" t="n">
-        <v>166.0499518471044</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>166.0499518471044</v>
@@ -30447,7 +30447,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8887999698065</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="41">
@@ -30621,10 +30621,10 @@
         <v>166.0499518471044</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>123.8189946124067</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -30660,13 +30660,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R43" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S43" t="n">
-        <v>3.665924689674966</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T43" t="n">
         <v>166.0499518471044</v>
@@ -30861,10 +30861,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>139.0607453633459</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.0499518471044</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R46" t="n">
-        <v>136.0388409905457</v>
+        <v>123.8776891132481</v>
       </c>
       <c r="S46" t="n">
         <v>166.0499518471044</v>
@@ -30909,7 +30909,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="U46" t="n">
-        <v>166.0499518471044</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>166.0499518471044</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K11" t="n">
         <v>318.1708085695228</v>
@@ -35419,13 +35419,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>299.4130973192437</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="O11" t="n">
         <v>408.2283531713298</v>
       </c>
       <c r="P11" t="n">
-        <v>315.9311720470479</v>
+        <v>40.88011948317074</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>90.90778770284894</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1603523957315</v>
+        <v>79.91240530758232</v>
       </c>
       <c r="L12" t="n">
         <v>438.5657312466048</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="N12" t="n">
-        <v>408.4708585174197</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="P12" t="n">
         <v>365.8734409578347</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.50869261858956</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>194.1368455219043</v>
+        <v>194.1368455219062</v>
       </c>
       <c r="L13" t="n">
         <v>141.260840850074</v>
@@ -35577,7 +35577,7 @@
         <v>160.9775757515334</v>
       </c>
       <c r="N13" t="n">
-        <v>289.6350885535113</v>
+        <v>217.752786745092</v>
       </c>
       <c r="O13" t="n">
         <v>137.142238224044</v>
@@ -35586,7 +35586,7 @@
         <v>95.84970920848468</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>113.3909944269773</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,19 +35653,19 @@
         <v>445.193777061507</v>
       </c>
       <c r="M14" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3486351622661</v>
+        <v>408.2283531713298</v>
       </c>
       <c r="P14" t="n">
-        <v>315.9311720470479</v>
+        <v>4.481183657490975</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>90.90778770284894</v>
       </c>
       <c r="K15" t="n">
-        <v>283.1603523957315</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>438.5657312466048</v>
+        <v>227.6113115031269</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="N15" t="n">
-        <v>408.4708585174197</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="P15" t="n">
         <v>365.8734409578347</v>
@@ -35808,22 +35808,22 @@
         <v>64.91877452795582</v>
       </c>
       <c r="L16" t="n">
-        <v>182.7695334686635</v>
+        <v>141.260840850074</v>
       </c>
       <c r="M16" t="n">
-        <v>290.1956467454819</v>
+        <v>290.1956467454839</v>
       </c>
       <c r="N16" t="n">
-        <v>289.6350885535113</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O16" t="n">
         <v>137.142238224044</v>
       </c>
       <c r="P16" t="n">
-        <v>95.84970920848468</v>
+        <v>153.1854783940108</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>113.3909944269774</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K17" t="n">
         <v>318.1708085695228</v>
@@ -35893,13 +35893,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="O17" t="n">
         <v>408.2283531713298</v>
       </c>
       <c r="P17" t="n">
-        <v>164.0514540379843</v>
+        <v>40.88011948317074</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35911,7 +35911,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>90.90778770284894</v>
       </c>
       <c r="K18" t="n">
-        <v>283.1603523957315</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>438.5657312466048</v>
@@ -35972,10 +35972,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>240.3383955848219</v>
       </c>
       <c r="O18" t="n">
-        <v>408.4708585174197</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="P18" t="n">
         <v>365.8734409578347</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K20" t="n">
         <v>318.1708085695228</v>
       </c>
       <c r="L20" t="n">
-        <v>157.9524157711837</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="N20" t="n">
-        <v>451.2928153283073</v>
+        <v>10.572454117159</v>
       </c>
       <c r="O20" t="n">
         <v>408.2283531713298</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36148,7 +36148,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.344346938798481e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>283.1603523957315</v>
       </c>
       <c r="L21" t="n">
         <v>438.5657312466048</v>
@@ -36209,16 +36209,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>331.2461832876929</v>
+        <v>248.0448682401507</v>
       </c>
       <c r="O21" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="P21" t="n">
         <v>365.8734409578347</v>
       </c>
       <c r="Q21" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K23" t="n">
         <v>318.1708085695228</v>
@@ -36364,28 +36364,28 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="N23" t="n">
-        <v>133.7437886719728</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="O23" t="n">
         <v>408.2283531713298</v>
       </c>
       <c r="P23" t="n">
-        <v>315.9311720470479</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>159.570270380471</v>
+        <v>34.78108121637801</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-2.296703792355879e-12</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2.344346938798481e-12</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>438.5657312466048</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>157.1370805373017</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>408.4708585174204</v>
+        <v>451.2928153282998</v>
       </c>
       <c r="P24" t="n">
         <v>365.8734409578347</v>
       </c>
       <c r="Q24" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>179.5140384202608</v>
+        <v>224.5427855671137</v>
       </c>
       <c r="K26" t="n">
-        <v>419.5422595818451</v>
+        <v>419.5422595818452</v>
       </c>
       <c r="L26" t="n">
-        <v>546.5652280738293</v>
+        <v>546.5652280738294</v>
       </c>
       <c r="M26" t="n">
-        <v>602.9470837727255</v>
+        <v>602.9470837727256</v>
       </c>
       <c r="N26" t="n">
-        <v>589.5774166452632</v>
+        <v>589.5774166452633</v>
       </c>
       <c r="O26" t="n">
-        <v>509.5998041836521</v>
+        <v>464.5710570367964</v>
       </c>
       <c r="P26" t="n">
-        <v>417.3026230593703</v>
+        <v>417.3026230593704</v>
       </c>
       <c r="Q26" t="n">
         <v>159.570270380471</v>
       </c>
       <c r="R26" t="n">
-        <v>48.97499167450184</v>
+        <v>48.97499167450196</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.76406069471223</v>
+        <v>60.76406069471001</v>
       </c>
       <c r="K28" t="n">
-        <v>166.2902255402781</v>
+        <v>166.2902255402782</v>
       </c>
       <c r="L28" t="n">
-        <v>242.6322918623962</v>
+        <v>242.6322918623964</v>
       </c>
       <c r="M28" t="n">
-        <v>262.3490267638557</v>
+        <v>262.3490267638558</v>
       </c>
       <c r="N28" t="n">
-        <v>261.7884685718851</v>
+        <v>261.7884685718852</v>
       </c>
       <c r="O28" t="n">
-        <v>238.5136892363665</v>
+        <v>238.5136892363664</v>
       </c>
       <c r="P28" t="n">
-        <v>197.221160220807</v>
+        <v>197.2211602208071</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.54437444534922</v>
+        <v>85.54437444534933</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>179.5140384202606</v>
+        <v>224.5427855671136</v>
       </c>
       <c r="K29" t="n">
-        <v>318.1708085695228</v>
+        <v>419.5422595818451</v>
       </c>
       <c r="L29" t="n">
         <v>546.5652280738293</v>
       </c>
       <c r="M29" t="n">
-        <v>602.9470837727255</v>
+        <v>557.9183366258707</v>
       </c>
       <c r="N29" t="n">
-        <v>589.5774166452632</v>
+        <v>488.2059656329409</v>
       </c>
       <c r="O29" t="n">
         <v>509.5998041836521</v>
@@ -36920,7 +36920,7 @@
         <v>570.5092749782723</v>
       </c>
       <c r="N30" t="n">
-        <v>81.15561336752891</v>
+        <v>81.15561336752914</v>
       </c>
       <c r="O30" t="n">
         <v>471.8243417781767</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>224.5427855671136</v>
+        <v>224.5427855671137</v>
       </c>
       <c r="K32" t="n">
-        <v>419.5422595818452</v>
+        <v>419.5422595818453</v>
       </c>
       <c r="L32" t="n">
-        <v>546.5652280738293</v>
+        <v>546.5652280738294</v>
       </c>
       <c r="M32" t="n">
-        <v>602.9470837727255</v>
+        <v>602.9470837727256</v>
       </c>
       <c r="N32" t="n">
-        <v>589.5774166452632</v>
+        <v>488.2059656329408</v>
       </c>
       <c r="O32" t="n">
-        <v>509.5998041836521</v>
+        <v>509.5998041836522</v>
       </c>
       <c r="P32" t="n">
-        <v>417.3026230593703</v>
+        <v>372.2738759125141</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.5165149081198</v>
+        <v>260.9417213927934</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>48.97499167450199</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>283.1603523957315</v>
       </c>
       <c r="L33" t="n">
-        <v>438.5657312466048</v>
+        <v>286.4556226305054</v>
       </c>
       <c r="M33" t="n">
         <v>570.5092749782723</v>
       </c>
       <c r="N33" t="n">
-        <v>81.15561336752914</v>
+        <v>599.1391629414632</v>
       </c>
       <c r="O33" t="n">
         <v>471.8243417781767</v>
       </c>
       <c r="P33" t="n">
-        <v>365.8734409578347</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>199.9590373482113</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.76406069471224</v>
+        <v>60.76406069471237</v>
       </c>
       <c r="K34" t="n">
-        <v>166.2902255402781</v>
+        <v>166.2902255402748</v>
       </c>
       <c r="L34" t="n">
-        <v>242.6322918623963</v>
+        <v>242.6322918623964</v>
       </c>
       <c r="M34" t="n">
-        <v>262.3490267638557</v>
+        <v>262.3490267638558</v>
       </c>
       <c r="N34" t="n">
-        <v>261.7884685718851</v>
+        <v>261.7884685718852</v>
       </c>
       <c r="O34" t="n">
-        <v>238.5136892363663</v>
+        <v>238.5136892363664</v>
       </c>
       <c r="P34" t="n">
-        <v>197.221160220807</v>
+        <v>197.2211602208071</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.54437444534923</v>
+        <v>85.54437444534936</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K35" t="n">
         <v>318.1708085695228</v>
@@ -37318,13 +37318,13 @@
         <v>488.2059656329408</v>
       </c>
       <c r="O35" t="n">
-        <v>408.2283531713298</v>
+        <v>309.7068891489972</v>
       </c>
       <c r="P35" t="n">
         <v>315.9311720470479</v>
       </c>
       <c r="Q35" t="n">
-        <v>24.64987053245851</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>90.90778770284894</v>
       </c>
       <c r="K36" t="n">
-        <v>56.04362787285832</v>
+        <v>283.1603523957315</v>
       </c>
       <c r="L36" t="n">
         <v>438.5657312466048</v>
@@ -37394,7 +37394,7 @@
         <v>570.5092749782723</v>
       </c>
       <c r="N36" t="n">
-        <v>599.1391629414632</v>
+        <v>81.1556133675296</v>
       </c>
       <c r="O36" t="n">
         <v>471.8243417781767</v>
@@ -37403,7 +37403,7 @@
         <v>365.8734409578347</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>199.9590373482113</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>183.2504087215103</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L38" t="n">
         <v>445.193777061507</v>
@@ -37552,7 +37552,7 @@
         <v>501.5756327604031</v>
       </c>
       <c r="N38" t="n">
-        <v>488.2059656329408</v>
+        <v>353.2855657849284</v>
       </c>
       <c r="O38" t="n">
         <v>408.2283531713298</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>123.1713345547912</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>60.07907416671906</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L41" t="n">
         <v>445.193777061507</v>
@@ -37789,7 +37789,7 @@
         <v>501.5756327604031</v>
       </c>
       <c r="N41" t="n">
-        <v>488.2059656329408</v>
+        <v>353.2855657849284</v>
       </c>
       <c r="O41" t="n">
         <v>408.2283531713298</v>
@@ -37868,7 +37868,7 @@
         <v>570.5092749782723</v>
       </c>
       <c r="N42" t="n">
-        <v>81.1556133675296</v>
+        <v>281.1146507157411</v>
       </c>
       <c r="O42" t="n">
         <v>471.8243417781767</v>
@@ -37877,7 +37877,7 @@
         <v>365.8734409578347</v>
       </c>
       <c r="Q42" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>123.1713345547912</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>318.1708085695228</v>
+        <v>183.2504087215103</v>
       </c>
       <c r="L44" t="n">
         <v>445.193777061507</v>
       </c>
       <c r="M44" t="n">
-        <v>243.4838983575993</v>
+        <v>501.5756327604031</v>
       </c>
       <c r="N44" t="n">
         <v>488.2059656329408</v>
@@ -38105,7 +38105,7 @@
         <v>570.5092749782723</v>
       </c>
       <c r="N45" t="n">
-        <v>81.15561336752914</v>
+        <v>281.1146507157407</v>
       </c>
       <c r="O45" t="n">
         <v>471.8243417781767</v>
@@ -38114,7 +38114,7 @@
         <v>365.8734409578347</v>
       </c>
       <c r="Q45" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
